--- a/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
@@ -987,16 +987,16 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>5.049375295165951e-13</v>
+        <v>1.00987505903319e-11</v>
       </c>
       <c r="C2">
-        <v>5.967810837782247e-10</v>
+        <v>1.193562167556449e-08</v>
       </c>
       <c r="D2">
-        <v>4.014447427192481e-13</v>
+        <v>5.565464733530563e-13</v>
       </c>
       <c r="E2">
-        <v>4.744638982695967e-10</v>
+        <v>6.577772261423277e-10</v>
       </c>
       <c r="F2">
         <v>5.122359186599967e-15</v>
@@ -1010,16 +1010,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.469924593467616e-07</v>
+        <v>2.939849186935231e-06</v>
       </c>
       <c r="C3">
-        <v>7.472378397561183e-05</v>
+        <v>0.001494475679512237</v>
       </c>
       <c r="D3">
-        <v>1.16864654684359e-07</v>
+        <v>1.62016348710012e-07</v>
       </c>
       <c r="E3">
-        <v>5.940828019223763e-05</v>
+        <v>8.236119522950923e-05</v>
       </c>
       <c r="F3">
         <v>1.491170947852986e-09</v>
@@ -1033,16 +1033,16 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.225287822524308e-12</v>
+        <v>2.450575645048615e-11</v>
       </c>
       <c r="C4">
-        <v>1.429854319226659e-09</v>
+        <v>2.859708638453318e-08</v>
       </c>
       <c r="D4">
-        <v>9.741509115814934e-13</v>
+        <v>1.350522741142252e-12</v>
       </c>
       <c r="E4">
-        <v>1.136789138762335e-09</v>
+        <v>1.575997687349714e-09</v>
       </c>
       <c r="F4">
         <v>1.242998186319241e-14</v>
@@ -1056,16 +1056,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>4.790117496551047e-13</v>
+        <v>9.580234993102117e-12</v>
       </c>
       <c r="C5">
-        <v>1.846666042909072e-10</v>
+        <v>3.693332085818145e-09</v>
       </c>
       <c r="D5">
-        <v>3.808327512987338e-13</v>
+        <v>5.279708565541755e-13</v>
       </c>
       <c r="E5">
-        <v>1.468170478818884e-10</v>
+        <v>2.035411142098737e-10</v>
       </c>
       <c r="F5">
         <v>4.859354064420981e-15</v>
@@ -1079,16 +1079,16 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>3.847480097154758e-08</v>
+        <v>7.694960194309515e-07</v>
       </c>
       <c r="C6">
-        <v>1.33640791425079e-05</v>
+        <v>0.0002672815828501579</v>
       </c>
       <c r="D6">
-        <v>3.058894551170325e-08</v>
+        <v>4.240725543648026e-08</v>
       </c>
       <c r="E6">
-        <v>1.06249565529025e-05</v>
+        <v>1.473000258763586e-05</v>
       </c>
       <c r="F6">
         <v>3.903091742812015e-10</v>
@@ -1102,16 +1102,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.922619779559168e-13</v>
+        <v>3.845239559118346e-12</v>
       </c>
       <c r="C7">
-        <v>2.418389503046983e-10</v>
+        <v>4.836779006093965e-09</v>
       </c>
       <c r="D7">
-        <v>1.528556618659316e-13</v>
+        <v>2.119128001709203e-13</v>
       </c>
       <c r="E7">
-        <v>1.922712603230491e-10</v>
+        <v>2.66556964067099e-10</v>
       </c>
       <c r="F7">
         <v>1.9504094099704e-15</v>
@@ -1125,16 +1125,16 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>3.279288227097784e-08</v>
+        <v>6.558576454195567e-07</v>
       </c>
       <c r="C8">
-        <v>1.624519734799522e-05</v>
+        <v>0.0003249039469599045</v>
       </c>
       <c r="D8">
-        <v>2.607160176606089e-08</v>
+        <v>3.614459593935738e-08</v>
       </c>
       <c r="E8">
-        <v>1.291555625907385e-05</v>
+        <v>1.790559577064278e-05</v>
       </c>
       <c r="F8">
         <v>3.326687202605998e-10</v>
@@ -1148,16 +1148,16 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>6.461117416389736e-06</v>
+        <v>0.0001292223483277947</v>
       </c>
       <c r="C9">
-        <v>0.007579955168179847</v>
+        <v>0.1515991033635969</v>
       </c>
       <c r="D9">
-        <v>5.136836672418864e-06</v>
+        <v>7.121499000983912e-06</v>
       </c>
       <c r="E9">
-        <v>0.006026355686467911</v>
+        <v>0.008354691561673903</v>
       </c>
       <c r="F9">
         <v>6.554506690209739e-08</v>
@@ -1171,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.117084459491348e-10</v>
+        <v>2.234168918982695e-09</v>
       </c>
       <c r="C10">
-        <v>1.355968712910781e-07</v>
+        <v>2.711937425821561e-06</v>
       </c>
       <c r="D10">
-        <v>8.881250792855465e-11</v>
+        <v>1.231260066889089e-10</v>
       </c>
       <c r="E10">
-        <v>1.07804724202408e-07</v>
+        <v>1.494560338721614e-07</v>
       </c>
       <c r="F10">
         <v>1.133230847142944e-12</v>
@@ -1194,16 +1194,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.236594495924008e-08</v>
+        <v>2.473188991848016e-07</v>
       </c>
       <c r="C11">
-        <v>3.286897868065909e-06</v>
+        <v>6.573795736131818e-05</v>
       </c>
       <c r="D11">
-        <v>9.831401514945939e-09</v>
+        <v>1.362985053484102e-08</v>
       </c>
       <c r="E11">
-        <v>2.613210133644456e-06</v>
+        <v>3.622847005440578e-06</v>
       </c>
       <c r="F11">
         <v>1.254468286870944e-10</v>
@@ -1217,16 +1217,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>1.342335751600836e-07</v>
+        <v>2.684671503201672e-06</v>
       </c>
       <c r="C12">
-        <v>3.711483151231688e-05</v>
+        <v>0.0007422966302463375</v>
       </c>
       <c r="D12">
-        <v>1.067208513813856e-07</v>
+        <v>1.479533971904174e-07</v>
       </c>
       <c r="E12">
-        <v>2.950771752259028e-05</v>
+        <v>4.090828544087047e-05</v>
       </c>
       <c r="F12">
         <v>1.361737931283662e-09</v>
@@ -1240,16 +1240,16 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>1.014416141514979e-06</v>
+        <v>2.028832283029957e-05</v>
       </c>
       <c r="C13">
-        <v>0.001124311472533124</v>
+        <v>0.02248622945066248</v>
       </c>
       <c r="D13">
-        <v>8.064998205433425e-07</v>
+        <v>1.118098166743657e-06</v>
       </c>
       <c r="E13">
-        <v>0.0008938708324165569</v>
+        <v>0.001239225742613625</v>
       </c>
       <c r="F13">
         <v>1.029078556806653e-08</v>
@@ -1263,16 +1263,16 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>5.201891418560604e-05</v>
+        <v>0.00104037828371212</v>
       </c>
       <c r="C14">
-        <v>0.03782952672652994</v>
+        <v>0.7565905345305988</v>
       </c>
       <c r="D14">
-        <v>4.135703607091245e-05</v>
+        <v>5.733569312102955e-05</v>
       </c>
       <c r="E14">
-        <v>0.03007592768646365</v>
+        <v>0.04169602863233692</v>
       </c>
       <c r="F14">
         <v>5.277079784714973e-07</v>
@@ -1286,16 +1286,16 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>1.206630375808804e-05</v>
+        <v>0.0002413260751617608</v>
       </c>
       <c r="C15">
-        <v>0.01953299630737353</v>
+        <v>0.3906599261474705</v>
       </c>
       <c r="D15">
-        <v>9.593175243629313e-06</v>
+        <v>1.329958343440962e-05</v>
       </c>
       <c r="E15">
-        <v>0.01552948279494418</v>
+        <v>0.02152943596665203</v>
       </c>
       <c r="F15">
         <v>1.22407106405262e-07</v>
@@ -1309,16 +1309,16 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>5.838368360936419e-11</v>
+        <v>1.167673672187283e-09</v>
       </c>
       <c r="C16">
-        <v>9.455771760707301e-08</v>
+        <v>1.89115435214146e-06</v>
       </c>
       <c r="D16">
-        <v>4.641727238615341e-11</v>
+        <v>6.435099653864082e-11</v>
       </c>
       <c r="E16">
-        <v>7.517701972604741e-08</v>
+        <v>1.042223268944027e-07</v>
       </c>
       <c r="F16">
         <v>5.922756392662711e-13</v>

--- a/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.004759692129782916</v>
+        <v>0.00473743148508129</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.004759692129782916</v>
+        <v>0.00473743148508129</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.004759692129782916</v>
+        <v>0.00473743148508129</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.004759692129782916</v>
+        <v>0.00473743148508129</v>
       </c>
     </row>
   </sheetData>
@@ -609,19 +609,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1.00987505903319e-11</v>
+        <v>3.085161884195554e-12</v>
       </c>
       <c r="C2">
         <v>1.193562167556449e-08</v>
       </c>
       <c r="D2">
-        <v>4.014447427192481e-13</v>
+        <v>1.226411136476452e-13</v>
       </c>
       <c r="E2">
         <v>4.744638982695967e-10</v>
       </c>
       <c r="F2">
-        <v>5.122359186599967e-15</v>
+        <v>1.564877474525071e-15</v>
       </c>
       <c r="G2">
         <v>7.574659857908915e-11</v>
@@ -632,19 +632,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2.939849186935231e-06</v>
+        <v>2.891963983688365e-06</v>
       </c>
       <c r="C3">
-        <v>0.001494475679512237</v>
+        <v>0.001494475679512236</v>
       </c>
       <c r="D3">
-        <v>1.16864654684359e-07</v>
+        <v>1.149611258343742e-07</v>
       </c>
       <c r="E3">
         <v>5.940828019223763e-05</v>
       </c>
       <c r="F3">
-        <v>1.491170947852986e-09</v>
+        <v>1.466882278818164e-09</v>
       </c>
       <c r="G3">
         <v>2.06096507345781e-05</v>
@@ -655,19 +655,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.450575645048615e-11</v>
+        <v>2.75743954133966e-12</v>
       </c>
       <c r="C4">
-        <v>2.859708638453318e-08</v>
+        <v>2.859708638453319e-08</v>
       </c>
       <c r="D4">
-        <v>9.741509115814934e-13</v>
+        <v>1.09613520735599e-13</v>
       </c>
       <c r="E4">
         <v>1.136789138762335e-09</v>
       </c>
       <c r="F4">
-        <v>1.242998186319241e-14</v>
+        <v>1.398647846556135e-15</v>
       </c>
       <c r="G4">
         <v>2.840648822176245e-10</v>
@@ -678,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.580234993102117e-12</v>
+        <v>9.413771171888313e-12</v>
       </c>
       <c r="C5">
         <v>3.693332085818145e-09</v>
       </c>
       <c r="D5">
-        <v>3.808327512987338e-13</v>
+        <v>3.742154945122143e-13</v>
       </c>
       <c r="E5">
         <v>1.468170478818884e-10</v>
       </c>
       <c r="F5">
-        <v>4.859354064420981e-15</v>
+        <v>4.774919116136648e-15</v>
       </c>
       <c r="G5">
         <v>7.122353894907845e-11</v>
@@ -701,19 +701,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.694960194309515e-07</v>
+        <v>7.650155341053458e-07</v>
       </c>
       <c r="C6">
         <v>0.0002672815828501579</v>
       </c>
       <c r="D6">
-        <v>3.058894551170325e-08</v>
+        <v>3.041083760986864e-08</v>
       </c>
       <c r="E6">
         <v>1.06249565529025e-05</v>
       </c>
       <c r="F6">
-        <v>3.903091742812015e-10</v>
+        <v>3.880365510529366e-10</v>
       </c>
       <c r="G6">
         <v>2.713246273697744e-06</v>
@@ -724,19 +724,19 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.845239559118346e-12</v>
+        <v>3.786151263252654e-12</v>
       </c>
       <c r="C7">
-        <v>4.836779006093965e-09</v>
+        <v>4.836779006093964e-09</v>
       </c>
       <c r="D7">
-        <v>1.528556618659316e-13</v>
+        <v>1.505067885553821e-13</v>
       </c>
       <c r="E7">
         <v>1.922712603230491e-10</v>
       </c>
       <c r="F7">
-        <v>1.9504094099704e-15</v>
+        <v>1.920438229630732e-15</v>
       </c>
       <c r="G7">
         <v>4.521797898363236e-11</v>
@@ -747,19 +747,19 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.558576454195567e-07</v>
+        <v>6.516781649403849e-07</v>
       </c>
       <c r="C8">
         <v>0.0003249039469599045</v>
       </c>
       <c r="D8">
-        <v>2.607160176606089e-08</v>
+        <v>2.590545938531256e-08</v>
       </c>
       <c r="E8">
         <v>1.291555625907385e-05</v>
       </c>
       <c r="F8">
-        <v>3.326687202605998e-10</v>
+        <v>3.305487748241617e-10</v>
       </c>
       <c r="G8">
         <v>4.413579917750429e-06</v>
@@ -770,19 +770,19 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0001292223483277947</v>
+        <v>-0.0002617249652192398</v>
       </c>
       <c r="C9">
         <v>0.1515991033635969</v>
       </c>
       <c r="D9">
-        <v>5.136836672418864e-06</v>
+        <v>-1.040407032392991e-05</v>
       </c>
       <c r="E9">
         <v>0.006026355686467911</v>
       </c>
       <c r="F9">
-        <v>6.554506690209739e-08</v>
+        <v>-1.327539746586878e-07</v>
       </c>
       <c r="G9">
         <v>0.001323571181617822</v>
@@ -793,19 +793,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2.234168918982695e-09</v>
+        <v>1.101273514891498e-09</v>
       </c>
       <c r="C10">
-        <v>2.711937425821561e-06</v>
+        <v>2.71193742582156e-06</v>
       </c>
       <c r="D10">
-        <v>8.881250792855465e-11</v>
+        <v>4.377773853256529e-11</v>
       </c>
       <c r="E10">
         <v>1.07804724202408e-07</v>
       </c>
       <c r="F10">
-        <v>1.133230847142944e-12</v>
+        <v>5.585956852290479e-13</v>
       </c>
       <c r="G10">
         <v>3.743753451528133e-08</v>
@@ -816,19 +816,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.473188991848016e-07</v>
+        <v>2.459376846033515e-07</v>
       </c>
       <c r="C11">
         <v>6.573795736131818e-05</v>
       </c>
       <c r="D11">
-        <v>9.831401514945939e-09</v>
+        <v>9.776495581055354e-09</v>
       </c>
       <c r="E11">
-        <v>2.613210133644456e-06</v>
+        <v>2.613210133644457e-06</v>
       </c>
       <c r="F11">
-        <v>1.254468286870944e-10</v>
+        <v>1.247462393283741e-10</v>
       </c>
       <c r="G11">
         <v>8.334420278255721e-07</v>
@@ -839,19 +839,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.684671503201672e-06</v>
+        <v>2.669434952291732e-06</v>
       </c>
       <c r="C12">
-        <v>0.0007422966302463375</v>
+        <v>0.0007422966302463374</v>
       </c>
       <c r="D12">
-        <v>1.067208513813856e-07</v>
+        <v>1.06115169202659e-07</v>
       </c>
       <c r="E12">
-        <v>2.950771752259028e-05</v>
+        <v>2.950771752259027e-05</v>
       </c>
       <c r="F12">
-        <v>1.361737931283662e-09</v>
+        <v>1.354009540941955e-09</v>
       </c>
       <c r="G12">
         <v>7.913191881792614e-06</v>
@@ -862,19 +862,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.028832283029957e-05</v>
+        <v>2.023445644808604e-05</v>
       </c>
       <c r="C13">
         <v>0.02248622945066248</v>
       </c>
       <c r="D13">
-        <v>8.064998205433425e-07</v>
+        <v>8.043585283354105e-07</v>
       </c>
       <c r="E13">
-        <v>0.0008938708324165569</v>
+        <v>0.0008938708324165568</v>
       </c>
       <c r="F13">
-        <v>1.029078556806653e-08</v>
+        <v>1.026346308343714e-08</v>
       </c>
       <c r="G13">
         <v>0.0003145743538710585</v>
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.00104037828371212</v>
+        <v>0.001028314209567736</v>
       </c>
       <c r="C14">
-        <v>0.7565905345305988</v>
+        <v>0.7565905345305987</v>
       </c>
       <c r="D14">
-        <v>4.135703607091245e-05</v>
+        <v>4.087746594016032e-05</v>
       </c>
       <c r="E14">
         <v>0.03007592768646365</v>
       </c>
       <c r="F14">
-        <v>5.277079784714973e-07</v>
+        <v>5.215887540715527e-07</v>
       </c>
       <c r="G14">
         <v>0.008758930075359505</v>
@@ -908,19 +908,19 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0002413260751617608</v>
+        <v>0.0001985842234212058</v>
       </c>
       <c r="C15">
-        <v>0.3906599261474705</v>
+        <v>0.3906599261474704</v>
       </c>
       <c r="D15">
-        <v>9.593175243629313e-06</v>
+        <v>7.894104499991172e-06</v>
       </c>
       <c r="E15">
         <v>0.01552948279494418</v>
       </c>
       <c r="F15">
-        <v>1.22407106405262e-07</v>
+        <v>1.007272842374457e-07</v>
       </c>
       <c r="G15">
         <v>0.004897493880441664</v>
@@ -931,19 +931,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.167673672187283e-09</v>
+        <v>1.150755541788736e-09</v>
       </c>
       <c r="C16">
         <v>1.89115435214146e-06</v>
       </c>
       <c r="D16">
-        <v>4.641727238615341e-11</v>
+        <v>4.574474419126584e-11</v>
       </c>
       <c r="E16">
-        <v>7.517701972604741e-08</v>
+        <v>7.517701972604739e-08</v>
       </c>
       <c r="F16">
-        <v>5.922756392662711e-13</v>
+        <v>5.836943063685091e-13</v>
       </c>
       <c r="G16">
         <v>3.417304460728608e-08</v>
@@ -987,19 +987,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1.00987505903319e-11</v>
+        <v>3.085161884195554e-12</v>
       </c>
       <c r="C2">
         <v>1.193562167556449e-08</v>
       </c>
       <c r="D2">
-        <v>5.565464733530563e-13</v>
+        <v>1.70024593736985e-13</v>
       </c>
       <c r="E2">
         <v>6.577772261423277e-10</v>
       </c>
       <c r="F2">
-        <v>5.122359186599967e-15</v>
+        <v>1.564877474525071e-15</v>
       </c>
       <c r="G2">
         <v>7.574659857908915e-11</v>
@@ -1010,19 +1010,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2.939849186935231e-06</v>
+        <v>2.891963983688365e-06</v>
       </c>
       <c r="C3">
-        <v>0.001494475679512237</v>
+        <v>0.001494475679512236</v>
       </c>
       <c r="D3">
-        <v>1.62016348710012e-07</v>
+        <v>1.59377374635501e-07</v>
       </c>
       <c r="E3">
-        <v>8.236119522950923e-05</v>
+        <v>8.236119522950921e-05</v>
       </c>
       <c r="F3">
-        <v>1.491170947852986e-09</v>
+        <v>1.466882278818164e-09</v>
       </c>
       <c r="G3">
         <v>2.06096507345781e-05</v>
@@ -1033,19 +1033,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.450575645048615e-11</v>
+        <v>2.75743954133966e-12</v>
       </c>
       <c r="C4">
-        <v>2.859708638453318e-08</v>
+        <v>2.859708638453319e-08</v>
       </c>
       <c r="D4">
-        <v>1.350522741142252e-12</v>
+        <v>1.519636749605494e-13</v>
       </c>
       <c r="E4">
-        <v>1.575997687349714e-09</v>
+        <v>1.575997687349715e-09</v>
       </c>
       <c r="F4">
-        <v>1.242998186319241e-14</v>
+        <v>1.398647846556135e-15</v>
       </c>
       <c r="G4">
         <v>2.840648822176245e-10</v>
@@ -1056,19 +1056,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.580234993102117e-12</v>
+        <v>9.413771171888313e-12</v>
       </c>
       <c r="C5">
         <v>3.693332085818145e-09</v>
       </c>
       <c r="D5">
-        <v>5.279708565541755e-13</v>
+        <v>5.187969640207655e-13</v>
       </c>
       <c r="E5">
         <v>2.035411142098737e-10</v>
       </c>
       <c r="F5">
-        <v>4.859354064420981e-15</v>
+        <v>4.774919116136648e-15</v>
       </c>
       <c r="G5">
         <v>7.122353894907845e-11</v>
@@ -1079,19 +1079,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.694960194309515e-07</v>
+        <v>7.650155341053458e-07</v>
       </c>
       <c r="C6">
         <v>0.0002672815828501579</v>
       </c>
       <c r="D6">
-        <v>4.240725543648026e-08</v>
+        <v>4.216033396985218e-08</v>
       </c>
       <c r="E6">
         <v>1.473000258763586e-05</v>
       </c>
       <c r="F6">
-        <v>3.903091742812015e-10</v>
+        <v>3.880365510529366e-10</v>
       </c>
       <c r="G6">
         <v>2.713246273697744e-06</v>
@@ -1102,19 +1102,19 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.845239559118346e-12</v>
+        <v>3.786151263252654e-12</v>
       </c>
       <c r="C7">
-        <v>4.836779006093965e-09</v>
+        <v>4.836779006093964e-09</v>
       </c>
       <c r="D7">
-        <v>2.119128001709203e-13</v>
+        <v>2.08656418860548e-13</v>
       </c>
       <c r="E7">
         <v>2.66556964067099e-10</v>
       </c>
       <c r="F7">
-        <v>1.9504094099704e-15</v>
+        <v>1.920438229630732e-15</v>
       </c>
       <c r="G7">
         <v>4.521797898363236e-11</v>
@@ -1125,19 +1125,19 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.558576454195567e-07</v>
+        <v>6.516781649403849e-07</v>
       </c>
       <c r="C8">
         <v>0.0003249039469599045</v>
       </c>
       <c r="D8">
-        <v>3.614459593935738e-08</v>
+        <v>3.591426297882681e-08</v>
       </c>
       <c r="E8">
         <v>1.790559577064278e-05</v>
       </c>
       <c r="F8">
-        <v>3.326687202605998e-10</v>
+        <v>3.305487748241617e-10</v>
       </c>
       <c r="G8">
         <v>4.413579917750429e-06</v>
@@ -1148,19 +1148,19 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0001292223483277947</v>
+        <v>-0.0002617249652192398</v>
       </c>
       <c r="C9">
         <v>0.1515991033635969</v>
       </c>
       <c r="D9">
-        <v>7.121499000983912e-06</v>
+        <v>-1.44237750084322e-05</v>
       </c>
       <c r="E9">
-        <v>0.008354691561673903</v>
+        <v>0.008354691561673904</v>
       </c>
       <c r="F9">
-        <v>6.554506690209739e-08</v>
+        <v>-1.327539746586878e-07</v>
       </c>
       <c r="G9">
         <v>0.001323571181617822</v>
@@ -1171,19 +1171,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2.234168918982695e-09</v>
+        <v>1.101273514891498e-09</v>
       </c>
       <c r="C10">
-        <v>2.711937425821561e-06</v>
+        <v>2.71193742582156e-06</v>
       </c>
       <c r="D10">
-        <v>1.231260066889089e-10</v>
+        <v>6.069165541099318e-11</v>
       </c>
       <c r="E10">
         <v>1.494560338721614e-07</v>
       </c>
       <c r="F10">
-        <v>1.133230847142944e-12</v>
+        <v>5.585956852290479e-13</v>
       </c>
       <c r="G10">
         <v>3.743753451528133e-08</v>
@@ -1194,19 +1194,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.473188991848016e-07</v>
+        <v>2.459376846033515e-07</v>
       </c>
       <c r="C11">
         <v>6.573795736131818e-05</v>
       </c>
       <c r="D11">
-        <v>1.362985053484102e-08</v>
+        <v>1.355373120726937e-08</v>
       </c>
       <c r="E11">
-        <v>3.622847005440578e-06</v>
+        <v>3.622847005440579e-06</v>
       </c>
       <c r="F11">
-        <v>1.254468286870944e-10</v>
+        <v>1.247462393283741e-10</v>
       </c>
       <c r="G11">
         <v>8.334420278255721e-07</v>
@@ -1217,19 +1217,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.684671503201672e-06</v>
+        <v>2.669434952291732e-06</v>
       </c>
       <c r="C12">
-        <v>0.0007422966302463375</v>
+        <v>0.0007422966302463374</v>
       </c>
       <c r="D12">
-        <v>1.479533971904174e-07</v>
+        <v>1.471137043393919e-07</v>
       </c>
       <c r="E12">
         <v>4.090828544087047e-05</v>
       </c>
       <c r="F12">
-        <v>1.361737931283662e-09</v>
+        <v>1.354009540941955e-09</v>
       </c>
       <c r="G12">
         <v>7.913191881792614e-06</v>
@@ -1240,19 +1240,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.028832283029957e-05</v>
+        <v>2.023445644808604e-05</v>
       </c>
       <c r="C13">
         <v>0.02248622945066248</v>
       </c>
       <c r="D13">
-        <v>1.118098166743657e-06</v>
+        <v>1.115129567332763e-06</v>
       </c>
       <c r="E13">
         <v>0.001239225742613625</v>
       </c>
       <c r="F13">
-        <v>1.029078556806653e-08</v>
+        <v>1.026346308343714e-08</v>
       </c>
       <c r="G13">
         <v>0.0003145743538710585</v>
@@ -1263,19 +1263,19 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.00104037828371212</v>
+        <v>0.001028314209567736</v>
       </c>
       <c r="C14">
-        <v>0.7565905345305988</v>
+        <v>0.7565905345305987</v>
       </c>
       <c r="D14">
-        <v>5.733569312102955e-05</v>
+        <v>5.667083682427585e-05</v>
       </c>
       <c r="E14">
         <v>0.04169602863233692</v>
       </c>
       <c r="F14">
-        <v>5.277079784714973e-07</v>
+        <v>5.215887540715527e-07</v>
       </c>
       <c r="G14">
         <v>0.008758930075359505</v>
@@ -1286,19 +1286,19 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0002413260751617608</v>
+        <v>0.0001985842234212058</v>
       </c>
       <c r="C15">
-        <v>0.3906599261474705</v>
+        <v>0.3906599261474704</v>
       </c>
       <c r="D15">
-        <v>1.329958343440962e-05</v>
+        <v>1.094406166584961e-05</v>
       </c>
       <c r="E15">
         <v>0.02152943596665203</v>
       </c>
       <c r="F15">
-        <v>1.22407106405262e-07</v>
+        <v>1.007272842374457e-07</v>
       </c>
       <c r="G15">
         <v>0.004897493880441664</v>
@@ -1309,19 +1309,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.167673672187283e-09</v>
+        <v>1.150755541788736e-09</v>
       </c>
       <c r="C16">
         <v>1.89115435214146e-06</v>
       </c>
       <c r="D16">
-        <v>6.435099653864082e-11</v>
+        <v>6.341863112127395e-11</v>
       </c>
       <c r="E16">
-        <v>1.042223268944027e-07</v>
+        <v>1.042223268944026e-07</v>
       </c>
       <c r="F16">
-        <v>5.922756392662711e-13</v>
+        <v>5.836943063685091e-13</v>
       </c>
       <c r="G16">
         <v>3.417304460728608e-08</v>
@@ -1359,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1.061484002869651e-12</v>
+        <v>3.242826879467631e-13</v>
       </c>
       <c r="C2">
         <v>1.254558309920552e-09</v>
       </c>
       <c r="D2">
-        <v>5.122359186599967e-15</v>
+        <v>1.564877474525071e-15</v>
       </c>
       <c r="E2">
         <v>7.574659857908915e-11</v>
@@ -1376,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.090088080567736e-07</v>
+        <v>3.039755738199194e-07</v>
       </c>
       <c r="C3">
         <v>0.0001570849792051211</v>
       </c>
       <c r="D3">
-        <v>1.491170947852986e-09</v>
+        <v>1.466882278818164e-09</v>
       </c>
       <c r="E3">
         <v>2.06096507345781e-05</v>
@@ -1393,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.57581056366656e-12</v>
+        <v>2.898356520275325e-13</v>
       </c>
       <c r="C4">
         <v>3.005852006576374e-09</v>
       </c>
       <c r="D4">
-        <v>1.242998186319241e-14</v>
+        <v>1.398647846556135e-15</v>
       </c>
       <c r="E4">
         <v>2.840648822176245e-10</v>
@@ -1410,13 +1410,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.006982606209281e-12</v>
+        <v>9.894855226151823e-13</v>
       </c>
       <c r="C5">
         <v>3.88207718500781e-10</v>
       </c>
       <c r="D5">
-        <v>4.859354064420981e-15</v>
+        <v>4.774919116136648e-15</v>
       </c>
       <c r="E5">
         <v>7.122353894907845e-11</v>
@@ -1427,13 +1427,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.088205640802784e-08</v>
+        <v>8.041111067511948e-08</v>
       </c>
       <c r="C6">
         <v>2.809408173014375e-05</v>
       </c>
       <c r="D6">
-        <v>3.903091742812015e-10</v>
+        <v>3.880365510529366e-10</v>
       </c>
       <c r="E6">
         <v>2.713246273697744e-06</v>
@@ -1444,13 +1444,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.041747781268392e-13</v>
+        <v>3.979639820231794e-13</v>
       </c>
       <c r="C7">
         <v>5.083959143717973e-10</v>
       </c>
       <c r="D7">
-        <v>1.9504094099704e-15</v>
+        <v>1.920438229630732e-15</v>
       </c>
       <c r="E7">
         <v>4.521797898363236e-11</v>
@@ -1461,13 +1461,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.893747821033523e-08</v>
+        <v>6.849817122584606e-08</v>
       </c>
       <c r="C8">
         <v>3.415079311863801e-05</v>
       </c>
       <c r="D8">
-        <v>3.326687202605998e-10</v>
+        <v>3.305487748241617e-10</v>
       </c>
       <c r="E8">
         <v>4.413579917750429e-06</v>
@@ -1478,13 +1478,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.358261641737365e-05</v>
+        <v>-2.751002326939419e-05</v>
       </c>
       <c r="C9">
         <v>0.01593464672985375</v>
       </c>
       <c r="D9">
-        <v>6.554506690209739e-08</v>
+        <v>-1.327539746586878e-07</v>
       </c>
       <c r="E9">
         <v>0.001323571181617822</v>
@@ -1495,13 +1495,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2.348344526380437e-10</v>
+        <v>1.157553311555681e-10</v>
       </c>
       <c r="C10">
         <v>2.850529051632394e-07</v>
       </c>
       <c r="D10">
-        <v>1.133230847142944e-12</v>
+        <v>5.585956852290479e-13</v>
       </c>
       <c r="E10">
         <v>3.743753451528133e-08</v>
@@ -1512,13 +1512,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.59957954940811e-08</v>
+        <v>2.585061543743695e-08</v>
       </c>
       <c r="C11">
         <v>6.909744873506488e-06</v>
       </c>
       <c r="D11">
-        <v>1.254468286870944e-10</v>
+        <v>1.247462393283741e-10</v>
       </c>
       <c r="E11">
         <v>8.334420278255721e-07</v>
@@ -1529,13 +1529,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.82186972350501e-07</v>
+        <v>2.805854519539785e-07</v>
       </c>
       <c r="C12">
         <v>7.802311695318735e-05</v>
       </c>
       <c r="D12">
-        <v>1.361737931283662e-09</v>
+        <v>1.354009540941955e-09</v>
       </c>
       <c r="E12">
         <v>7.913191881792614e-06</v>
@@ -1546,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.132514308258635e-06</v>
+        <v>2.126852389737065e-06</v>
       </c>
       <c r="C13">
         <v>0.002363537215146748</v>
       </c>
       <c r="D13">
-        <v>1.029078556806653e-08</v>
+        <v>1.026346308343714e-08</v>
       </c>
       <c r="E13">
         <v>0.0003145743538710585</v>
@@ -1563,13 +1563,13 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0001093546073066356</v>
+        <v>0.0001080865473026626</v>
       </c>
       <c r="C14">
         <v>0.07952555535886685</v>
       </c>
       <c r="D14">
-        <v>5.277079784714973e-07</v>
+        <v>5.215887540715527e-07</v>
       </c>
       <c r="E14">
         <v>0.008758930075359505</v>
@@ -1580,13 +1580,13 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2.536588719249766e-05</v>
+        <v>2.08732728369099e-05</v>
       </c>
       <c r="C15">
         <v>0.04106243227402555</v>
       </c>
       <c r="D15">
-        <v>1.22407106405262e-07</v>
+        <v>1.007272842374457e-07</v>
       </c>
       <c r="E15">
         <v>0.004897493880441664</v>
@@ -1597,13 +1597,13 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.22734680148005e-10</v>
+        <v>1.209564082107108e-10</v>
       </c>
       <c r="C16">
         <v>1.987800445014757e-07</v>
       </c>
       <c r="D16">
-        <v>5.922756392662711e-13</v>
+        <v>5.836943063685091e-13</v>
       </c>
       <c r="E16">
         <v>3.417304460728608e-08</v>
@@ -1641,13 +1641,13 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1.061484002869651e-12</v>
+        <v>3.242826879467631e-13</v>
       </c>
       <c r="C2">
         <v>1.254558309920552e-09</v>
       </c>
       <c r="D2">
-        <v>5.122359186599967e-15</v>
+        <v>1.564877474525071e-15</v>
       </c>
       <c r="E2">
         <v>7.574659857908915e-11</v>
@@ -1658,13 +1658,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.090088080567736e-07</v>
+        <v>3.039755738199194e-07</v>
       </c>
       <c r="C3">
         <v>0.0001570849792051211</v>
       </c>
       <c r="D3">
-        <v>1.491170947852986e-09</v>
+        <v>1.466882278818164e-09</v>
       </c>
       <c r="E3">
         <v>2.06096507345781e-05</v>
@@ -1675,13 +1675,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.57581056366656e-12</v>
+        <v>2.898356520275325e-13</v>
       </c>
       <c r="C4">
         <v>3.005852006576374e-09</v>
       </c>
       <c r="D4">
-        <v>1.242998186319241e-14</v>
+        <v>1.398647846556135e-15</v>
       </c>
       <c r="E4">
         <v>2.840648822176245e-10</v>
@@ -1692,13 +1692,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.006982606209281e-12</v>
+        <v>9.894855226151823e-13</v>
       </c>
       <c r="C5">
         <v>3.88207718500781e-10</v>
       </c>
       <c r="D5">
-        <v>4.859354064420981e-15</v>
+        <v>4.774919116136648e-15</v>
       </c>
       <c r="E5">
         <v>7.122353894907845e-11</v>
@@ -1709,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.088205640802784e-08</v>
+        <v>8.041111067511948e-08</v>
       </c>
       <c r="C6">
         <v>2.809408173014375e-05</v>
       </c>
       <c r="D6">
-        <v>3.903091742812015e-10</v>
+        <v>3.880365510529366e-10</v>
       </c>
       <c r="E6">
         <v>2.713246273697744e-06</v>
@@ -1726,13 +1726,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.041747781268392e-13</v>
+        <v>3.979639820231794e-13</v>
       </c>
       <c r="C7">
         <v>5.083959143717973e-10</v>
       </c>
       <c r="D7">
-        <v>1.9504094099704e-15</v>
+        <v>1.920438229630732e-15</v>
       </c>
       <c r="E7">
         <v>4.521797898363236e-11</v>
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.893747821033523e-08</v>
+        <v>6.849817122584606e-08</v>
       </c>
       <c r="C8">
         <v>3.415079311863801e-05</v>
       </c>
       <c r="D8">
-        <v>3.326687202605998e-10</v>
+        <v>3.305487748241617e-10</v>
       </c>
       <c r="E8">
         <v>4.413579917750429e-06</v>
@@ -1760,13 +1760,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.358261641737365e-05</v>
+        <v>-2.751002326939419e-05</v>
       </c>
       <c r="C9">
         <v>0.01593464672985375</v>
       </c>
       <c r="D9">
-        <v>6.554506690209739e-08</v>
+        <v>-1.327539746586878e-07</v>
       </c>
       <c r="E9">
         <v>0.001323571181617822</v>
@@ -1777,13 +1777,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2.348344526380437e-10</v>
+        <v>1.157553311555681e-10</v>
       </c>
       <c r="C10">
         <v>2.850529051632394e-07</v>
       </c>
       <c r="D10">
-        <v>1.133230847142944e-12</v>
+        <v>5.585956852290479e-13</v>
       </c>
       <c r="E10">
         <v>3.743753451528133e-08</v>
@@ -1794,13 +1794,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.59957954940811e-08</v>
+        <v>2.585061543743695e-08</v>
       </c>
       <c r="C11">
         <v>6.909744873506488e-06</v>
       </c>
       <c r="D11">
-        <v>1.254468286870944e-10</v>
+        <v>1.247462393283741e-10</v>
       </c>
       <c r="E11">
         <v>8.334420278255721e-07</v>
@@ -1811,13 +1811,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.82186972350501e-07</v>
+        <v>2.805854519539785e-07</v>
       </c>
       <c r="C12">
         <v>7.802311695318735e-05</v>
       </c>
       <c r="D12">
-        <v>1.361737931283662e-09</v>
+        <v>1.354009540941955e-09</v>
       </c>
       <c r="E12">
         <v>7.913191881792614e-06</v>
@@ -1828,13 +1828,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.132514308258635e-06</v>
+        <v>2.126852389737065e-06</v>
       </c>
       <c r="C13">
         <v>0.002363537215146748</v>
       </c>
       <c r="D13">
-        <v>1.029078556806653e-08</v>
+        <v>1.026346308343714e-08</v>
       </c>
       <c r="E13">
         <v>0.0003145743538710585</v>
@@ -1845,13 +1845,13 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0001093546073066356</v>
+        <v>0.0001080865473026626</v>
       </c>
       <c r="C14">
         <v>0.07952555535886685</v>
       </c>
       <c r="D14">
-        <v>5.277079784714973e-07</v>
+        <v>5.215887540715527e-07</v>
       </c>
       <c r="E14">
         <v>0.008758930075359505</v>
@@ -1862,13 +1862,13 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2.536588719249766e-05</v>
+        <v>2.08732728369099e-05</v>
       </c>
       <c r="C15">
         <v>0.04106243227402555</v>
       </c>
       <c r="D15">
-        <v>1.22407106405262e-07</v>
+        <v>1.007272842374457e-07</v>
       </c>
       <c r="E15">
         <v>0.004897493880441664</v>
@@ -1879,13 +1879,13 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.22734680148005e-10</v>
+        <v>1.209564082107108e-10</v>
       </c>
       <c r="C16">
         <v>1.987800445014757e-07</v>
       </c>
       <c r="D16">
-        <v>5.922756392662711e-13</v>
+        <v>5.836943063685091e-13</v>
       </c>
       <c r="E16">
         <v>3.417304460728608e-08</v>

--- a/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00473743148508129</v>
+        <v>0.004782051931031098</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00473743148508129</v>
+        <v>0.004782051931031098</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00473743148508129</v>
+        <v>0.004782051931031098</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00473743148508129</v>
+        <v>0.004782051931031098</v>
       </c>
     </row>
   </sheetData>
@@ -609,19 +609,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>3.085161884195554e-12</v>
+        <v>1.714358022611696e-11</v>
       </c>
       <c r="C2">
         <v>1.193562167556449e-08</v>
       </c>
       <c r="D2">
-        <v>1.226411136476452e-13</v>
+        <v>6.814902587800344e-13</v>
       </c>
       <c r="E2">
         <v>4.744638982695967e-10</v>
       </c>
       <c r="F2">
-        <v>1.564877474525071e-15</v>
+        <v>8.695687142381209e-15</v>
       </c>
       <c r="G2">
         <v>7.574659857908915e-11</v>
@@ -632,19 +632,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2.891963983688365e-06</v>
+        <v>2.987947687301236e-06</v>
       </c>
       <c r="C3">
         <v>0.001494475679512236</v>
       </c>
       <c r="D3">
-        <v>1.149611258343742e-07</v>
+        <v>1.187766625047222e-07</v>
       </c>
       <c r="E3">
         <v>5.940828019223763e-05</v>
       </c>
       <c r="F3">
-        <v>1.466882278818164e-09</v>
+        <v>1.515567806950324e-09</v>
       </c>
       <c r="G3">
         <v>2.06096507345781e-05</v>
@@ -655,19 +655,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.75743954133966e-12</v>
+        <v>4.635094782247961e-11</v>
       </c>
       <c r="C4">
         <v>2.859708638453319e-08</v>
       </c>
       <c r="D4">
-        <v>1.09613520735599e-13</v>
+        <v>1.842539248489061e-12</v>
       </c>
       <c r="E4">
         <v>1.136789138762335e-09</v>
       </c>
       <c r="F4">
-        <v>1.398647846556135e-15</v>
+        <v>2.351045322511457e-14</v>
       </c>
       <c r="G4">
         <v>2.840648822176245e-10</v>
@@ -678,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.413771171888313e-12</v>
+        <v>9.747440301270103e-12</v>
       </c>
       <c r="C5">
         <v>3.693332085818145e-09</v>
       </c>
       <c r="D5">
-        <v>3.742154945122143e-13</v>
+        <v>3.874794836165959e-13</v>
       </c>
       <c r="E5">
         <v>1.468170478818884e-10</v>
       </c>
       <c r="F5">
-        <v>4.774919116136648e-15</v>
+        <v>4.944165114924844e-15</v>
       </c>
       <c r="G5">
         <v>7.122353894907845e-11</v>
@@ -701,19 +701,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.650155341053458e-07</v>
+        <v>7.739964623749337e-07</v>
       </c>
       <c r="C6">
         <v>0.0002672815828501579</v>
       </c>
       <c r="D6">
-        <v>3.041083760986864e-08</v>
+        <v>3.076784676722087e-08</v>
       </c>
       <c r="E6">
         <v>1.06249565529025e-05</v>
       </c>
       <c r="F6">
-        <v>3.880365510529366e-10</v>
+        <v>3.925919205527994e-10</v>
       </c>
       <c r="G6">
         <v>2.713246273697744e-06</v>
@@ -724,19 +724,19 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.786151263252654e-12</v>
+        <v>3.904591054520191e-12</v>
       </c>
       <c r="C7">
         <v>4.836779006093964e-09</v>
       </c>
       <c r="D7">
-        <v>1.505067885553821e-13</v>
+        <v>1.552149978638317e-13</v>
       </c>
       <c r="E7">
         <v>1.922712603230491e-10</v>
       </c>
       <c r="F7">
-        <v>1.920438229630732e-15</v>
+        <v>1.980514092226949e-15</v>
       </c>
       <c r="G7">
         <v>4.521797898363236e-11</v>
@@ -747,19 +747,19 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.516781649403849e-07</v>
+        <v>6.600557427382793e-07</v>
       </c>
       <c r="C8">
         <v>0.0003249039469599045</v>
       </c>
       <c r="D8">
-        <v>2.590545938531256e-08</v>
+        <v>2.62384842019573e-08</v>
       </c>
       <c r="E8">
         <v>1.291555625907385e-05</v>
       </c>
       <c r="F8">
-        <v>3.305487748241617e-10</v>
+        <v>3.3479810866112e-10</v>
       </c>
       <c r="G8">
         <v>4.413579917750429e-06</v>
@@ -770,19 +770,19 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0002617249652192398</v>
+        <v>0.0005219110752982013</v>
       </c>
       <c r="C9">
         <v>0.1515991033635969</v>
       </c>
       <c r="D9">
-        <v>-1.040407032392991e-05</v>
+        <v>2.074696819881819e-05</v>
       </c>
       <c r="E9">
         <v>0.006026355686467911</v>
       </c>
       <c r="F9">
-        <v>-1.327539746586878e-07</v>
+        <v>2.64727400407474e-07</v>
       </c>
       <c r="G9">
         <v>0.001323571181617822</v>
@@ -793,19 +793,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.101273514891498e-09</v>
+        <v>3.372110627769175e-09</v>
       </c>
       <c r="C10">
         <v>2.71193742582156e-06</v>
       </c>
       <c r="D10">
-        <v>4.377773853256529e-11</v>
+        <v>1.340478776336575e-10</v>
       </c>
       <c r="E10">
         <v>1.07804724202408e-07</v>
       </c>
       <c r="F10">
-        <v>5.585956852290479e-13</v>
+        <v>1.710425631158907e-12</v>
       </c>
       <c r="G10">
         <v>3.743753451528133e-08</v>
@@ -816,19 +816,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.459376846033515e-07</v>
+        <v>2.487062661697324e-07</v>
       </c>
       <c r="C11">
         <v>6.573795736131818e-05</v>
       </c>
       <c r="D11">
-        <v>9.776495581055354e-09</v>
+        <v>9.886552018697952e-09</v>
       </c>
       <c r="E11">
         <v>2.613210133644457e-06</v>
       </c>
       <c r="F11">
-        <v>1.247462393283741e-10</v>
+        <v>1.261505387111096e-10</v>
       </c>
       <c r="G11">
         <v>8.334420278255721e-07</v>
@@ -839,19 +839,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.669434952291732e-06</v>
+        <v>2.699975922935265e-06</v>
       </c>
       <c r="C12">
         <v>0.0007422966302463374</v>
       </c>
       <c r="D12">
-        <v>1.06115169202659e-07</v>
+        <v>1.073292314762759e-07</v>
       </c>
       <c r="E12">
         <v>2.950771752259027e-05</v>
       </c>
       <c r="F12">
-        <v>1.354009540941955e-09</v>
+        <v>1.369500746526669e-09</v>
       </c>
       <c r="G12">
         <v>7.913191881792614e-06</v>
@@ -862,19 +862,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.023445644808604e-05</v>
+        <v>2.034242915185481e-05</v>
       </c>
       <c r="C13">
         <v>0.02248622945066248</v>
       </c>
       <c r="D13">
-        <v>8.043585283354105e-07</v>
+        <v>8.086506508011985e-07</v>
       </c>
       <c r="E13">
         <v>0.0008938708324165568</v>
       </c>
       <c r="F13">
-        <v>1.026346308343714e-08</v>
+        <v>1.031822975641364e-08</v>
       </c>
       <c r="G13">
         <v>0.0003145743538710585</v>
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.001028314209567736</v>
+        <v>0.001052496095380534</v>
       </c>
       <c r="C14">
         <v>0.7565905345305987</v>
       </c>
       <c r="D14">
-        <v>4.087746594016032e-05</v>
+        <v>4.183874237151202e-05</v>
       </c>
       <c r="E14">
         <v>0.03007592768646365</v>
       </c>
       <c r="F14">
-        <v>5.215887540715527e-07</v>
+        <v>5.338544599957178e-07</v>
       </c>
       <c r="G14">
         <v>0.008758930075359505</v>
@@ -908,19 +908,19 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0001985842234212058</v>
+        <v>0.0002842583137697569</v>
       </c>
       <c r="C15">
         <v>0.3906599261474704</v>
       </c>
       <c r="D15">
-        <v>7.894104499991172e-06</v>
+        <v>1.129981423111439e-05</v>
       </c>
       <c r="E15">
         <v>0.01552948279494418</v>
       </c>
       <c r="F15">
-        <v>1.007272842374457e-07</v>
+        <v>1.441834979368547e-07</v>
       </c>
       <c r="G15">
         <v>0.004897493880441664</v>
@@ -931,19 +931,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.150755541788736e-09</v>
+        <v>1.184667161741281e-09</v>
       </c>
       <c r="C16">
         <v>1.89115435214146e-06</v>
       </c>
       <c r="D16">
-        <v>4.574474419126584e-11</v>
+        <v>4.709279625228768e-11</v>
       </c>
       <c r="E16">
         <v>7.517701972604739e-08</v>
       </c>
       <c r="F16">
-        <v>5.836943063685091e-13</v>
+        <v>6.008951963640212e-13</v>
       </c>
       <c r="G16">
         <v>3.417304460728608e-08</v>
@@ -987,19 +987,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>3.085161884195554e-12</v>
+        <v>1.714358022611696e-11</v>
       </c>
       <c r="C2">
         <v>1.193562167556449e-08</v>
       </c>
       <c r="D2">
-        <v>1.70024593736985e-13</v>
+        <v>9.447900539919178e-13</v>
       </c>
       <c r="E2">
         <v>6.577772261423277e-10</v>
       </c>
       <c r="F2">
-        <v>1.564877474525071e-15</v>
+        <v>8.695687142381209e-15</v>
       </c>
       <c r="G2">
         <v>7.574659857908915e-11</v>
@@ -1010,19 +1010,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2.891963983688365e-06</v>
+        <v>2.987947687301236e-06</v>
       </c>
       <c r="C3">
         <v>0.001494475679512236</v>
       </c>
       <c r="D3">
-        <v>1.59377374635501e-07</v>
+        <v>1.646670776801776e-07</v>
       </c>
       <c r="E3">
         <v>8.236119522950921e-05</v>
       </c>
       <c r="F3">
-        <v>1.466882278818164e-09</v>
+        <v>1.515567806950324e-09</v>
       </c>
       <c r="G3">
         <v>2.06096507345781e-05</v>
@@ -1033,19 +1033,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.75743954133966e-12</v>
+        <v>4.635094782247961e-11</v>
       </c>
       <c r="C4">
         <v>2.859708638453319e-08</v>
       </c>
       <c r="D4">
-        <v>1.519636749605494e-13</v>
+        <v>2.554420600491801e-12</v>
       </c>
       <c r="E4">
         <v>1.575997687349715e-09</v>
       </c>
       <c r="F4">
-        <v>1.398647846556135e-15</v>
+        <v>2.351045322511457e-14</v>
       </c>
       <c r="G4">
         <v>2.840648822176245e-10</v>
@@ -1056,19 +1056,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.413771171888313e-12</v>
+        <v>9.747440301270103e-12</v>
       </c>
       <c r="C5">
         <v>3.693332085818145e-09</v>
       </c>
       <c r="D5">
-        <v>5.187969640207655e-13</v>
+        <v>5.371856127514364e-13</v>
       </c>
       <c r="E5">
         <v>2.035411142098737e-10</v>
       </c>
       <c r="F5">
-        <v>4.774919116136648e-15</v>
+        <v>4.944165114924844e-15</v>
       </c>
       <c r="G5">
         <v>7.122353894907845e-11</v>
@@ -1079,19 +1079,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.650155341053458e-07</v>
+        <v>7.739964623749337e-07</v>
       </c>
       <c r="C6">
         <v>0.0002672815828501579</v>
       </c>
       <c r="D6">
-        <v>4.216033396985218e-08</v>
+        <v>4.26552767760109e-08</v>
       </c>
       <c r="E6">
         <v>1.473000258763586e-05</v>
       </c>
       <c r="F6">
-        <v>3.880365510529366e-10</v>
+        <v>3.925919205527994e-10</v>
       </c>
       <c r="G6">
         <v>2.713246273697744e-06</v>
@@ -1102,19 +1102,19 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.786151263252654e-12</v>
+        <v>3.904591054520191e-12</v>
       </c>
       <c r="C7">
         <v>4.836779006093964e-09</v>
       </c>
       <c r="D7">
-        <v>2.08656418860548e-13</v>
+        <v>2.1518368652054e-13</v>
       </c>
       <c r="E7">
         <v>2.66556964067099e-10</v>
       </c>
       <c r="F7">
-        <v>1.920438229630732e-15</v>
+        <v>1.980514092226949e-15</v>
       </c>
       <c r="G7">
         <v>4.521797898363236e-11</v>
@@ -1125,19 +1125,19 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.516781649403849e-07</v>
+        <v>6.600557427382793e-07</v>
       </c>
       <c r="C8">
         <v>0.0003249039469599045</v>
       </c>
       <c r="D8">
-        <v>3.591426297882681e-08</v>
+        <v>3.637595488189477e-08</v>
       </c>
       <c r="E8">
         <v>1.790559577064278e-05</v>
       </c>
       <c r="F8">
-        <v>3.305487748241617e-10</v>
+        <v>3.3479810866112e-10</v>
       </c>
       <c r="G8">
         <v>4.413579917750429e-06</v>
@@ -1148,19 +1148,19 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0002617249652192398</v>
+        <v>0.0005219110752982013</v>
       </c>
       <c r="C9">
         <v>0.1515991033635969</v>
       </c>
       <c r="D9">
-        <v>-1.44237750084322e-05</v>
+        <v>2.876274305053105e-05</v>
       </c>
       <c r="E9">
         <v>0.008354691561673904</v>
       </c>
       <c r="F9">
-        <v>-1.327539746586878e-07</v>
+        <v>2.64727400407474e-07</v>
       </c>
       <c r="G9">
         <v>0.001323571181617822</v>
@@ -1171,19 +1171,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.101273514891498e-09</v>
+        <v>3.372110627769175e-09</v>
       </c>
       <c r="C10">
         <v>2.71193742582156e-06</v>
       </c>
       <c r="D10">
-        <v>6.069165541099318e-11</v>
+        <v>1.858384619814256e-10</v>
       </c>
       <c r="E10">
         <v>1.494560338721614e-07</v>
       </c>
       <c r="F10">
-        <v>5.585956852290479e-13</v>
+        <v>1.710425631158907e-12</v>
       </c>
       <c r="G10">
         <v>3.743753451528133e-08</v>
@@ -1194,19 +1194,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.459376846033515e-07</v>
+        <v>2.487062661697324e-07</v>
       </c>
       <c r="C11">
         <v>6.573795736131818e-05</v>
       </c>
       <c r="D11">
-        <v>1.355373120726937e-08</v>
+        <v>1.370630892400541e-08</v>
       </c>
       <c r="E11">
         <v>3.622847005440579e-06</v>
       </c>
       <c r="F11">
-        <v>1.247462393283741e-10</v>
+        <v>1.261505387111096e-10</v>
       </c>
       <c r="G11">
         <v>8.334420278255721e-07</v>
@@ -1217,19 +1217,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.669434952291732e-06</v>
+        <v>2.699975922935265e-06</v>
       </c>
       <c r="C12">
         <v>0.0007422966302463374</v>
       </c>
       <c r="D12">
-        <v>1.471137043393919e-07</v>
+        <v>1.48796830321403e-07</v>
       </c>
       <c r="E12">
         <v>4.090828544087047e-05</v>
       </c>
       <c r="F12">
-        <v>1.354009540941955e-09</v>
+        <v>1.369500746526669e-09</v>
       </c>
       <c r="G12">
         <v>7.913191881792614e-06</v>
@@ -1240,19 +1240,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.023445644808604e-05</v>
+        <v>2.034242915185481e-05</v>
       </c>
       <c r="C13">
         <v>0.02248622945066248</v>
       </c>
       <c r="D13">
-        <v>1.115129567332763e-06</v>
+        <v>1.12107998931451e-06</v>
       </c>
       <c r="E13">
         <v>0.001239225742613625</v>
       </c>
       <c r="F13">
-        <v>1.026346308343714e-08</v>
+        <v>1.031822975641364e-08</v>
       </c>
       <c r="G13">
         <v>0.0003145743538710585</v>
@@ -1263,19 +1263,19 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.001028314209567736</v>
+        <v>0.001052496095380534</v>
       </c>
       <c r="C14">
         <v>0.7565905345305987</v>
       </c>
       <c r="D14">
-        <v>5.667083682427585e-05</v>
+        <v>5.800351091576434e-05</v>
       </c>
       <c r="E14">
         <v>0.04169602863233692</v>
       </c>
       <c r="F14">
-        <v>5.215887540715527e-07</v>
+        <v>5.338544599957178e-07</v>
       </c>
       <c r="G14">
         <v>0.008758930075359505</v>
@@ -1286,19 +1286,19 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0001985842234212058</v>
+        <v>0.0002842583137697569</v>
       </c>
       <c r="C15">
         <v>0.3906599261474704</v>
       </c>
       <c r="D15">
-        <v>1.094406166584961e-05</v>
+        <v>1.566559750483404e-05</v>
       </c>
       <c r="E15">
         <v>0.02152943596665203</v>
       </c>
       <c r="F15">
-        <v>1.007272842374457e-07</v>
+        <v>1.441834979368547e-07</v>
       </c>
       <c r="G15">
         <v>0.004897493880441664</v>
@@ -1309,19 +1309,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.150755541788736e-09</v>
+        <v>1.184667161741281e-09</v>
       </c>
       <c r="C16">
         <v>1.89115435214146e-06</v>
       </c>
       <c r="D16">
-        <v>6.341863112127395e-11</v>
+        <v>6.528751503136345e-11</v>
       </c>
       <c r="E16">
         <v>1.042223268944026e-07</v>
       </c>
       <c r="F16">
-        <v>5.836943063685091e-13</v>
+        <v>6.008951963640212e-13</v>
       </c>
       <c r="G16">
         <v>3.417304460728608e-08</v>
@@ -1359,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>3.242826879467631e-13</v>
+        <v>1.801969065297771e-12</v>
       </c>
       <c r="C2">
         <v>1.254558309920552e-09</v>
       </c>
       <c r="D2">
-        <v>1.564877474525071e-15</v>
+        <v>8.695687142381209e-15</v>
       </c>
       <c r="E2">
         <v>7.574659857908915e-11</v>
@@ -1376,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.039755738199194e-07</v>
+        <v>3.140644620452394e-07</v>
       </c>
       <c r="C3">
         <v>0.0001570849792051211</v>
       </c>
       <c r="D3">
-        <v>1.466882278818164e-09</v>
+        <v>1.515567806950324e-09</v>
       </c>
       <c r="E3">
         <v>2.06096507345781e-05</v>
@@ -1393,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.898356520275325e-13</v>
+        <v>4.871967991615782e-12</v>
       </c>
       <c r="C4">
         <v>3.005852006576374e-09</v>
       </c>
       <c r="D4">
-        <v>1.398647846556135e-15</v>
+        <v>2.351045322511457e-14</v>
       </c>
       <c r="E4">
         <v>2.840648822176245e-10</v>
@@ -1410,13 +1410,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.894855226151823e-13</v>
+        <v>1.024557627814938e-12</v>
       </c>
       <c r="C5">
         <v>3.88207718500781e-10</v>
       </c>
       <c r="D5">
-        <v>4.774919116136648e-15</v>
+        <v>4.944165114924844e-15</v>
       </c>
       <c r="E5">
         <v>7.122353894907845e-11</v>
@@ -1427,13 +1427,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.041111067511948e-08</v>
+        <v>8.135509989475759e-08</v>
       </c>
       <c r="C6">
         <v>2.809408173014375e-05</v>
       </c>
       <c r="D6">
-        <v>3.880365510529366e-10</v>
+        <v>3.925919205527994e-10</v>
       </c>
       <c r="E6">
         <v>2.713246273697744e-06</v>
@@ -1444,13 +1444,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.979639820231794e-13</v>
+        <v>4.104132392465495e-13</v>
       </c>
       <c r="C7">
         <v>5.083959143717973e-10</v>
       </c>
       <c r="D7">
-        <v>1.920438229630732e-15</v>
+        <v>1.980514092226949e-15</v>
       </c>
       <c r="E7">
         <v>4.521797898363236e-11</v>
@@ -1461,13 +1461,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.849817122584606e-08</v>
+        <v>6.937874201880874e-08</v>
       </c>
       <c r="C8">
         <v>3.415079311863801e-05</v>
       </c>
       <c r="D8">
-        <v>3.305487748241617e-10</v>
+        <v>3.3479810866112e-10</v>
       </c>
       <c r="E8">
         <v>4.413579917750429e-06</v>
@@ -1478,13 +1478,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-2.751002326939419e-05</v>
+        <v>5.485829681544112e-05</v>
       </c>
       <c r="C9">
         <v>0.01593464672985375</v>
       </c>
       <c r="D9">
-        <v>-1.327539746586878e-07</v>
+        <v>2.64727400407474e-07</v>
       </c>
       <c r="E9">
         <v>0.001323571181617822</v>
@@ -1495,13 +1495,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.157553311555681e-10</v>
+        <v>3.544439933698844e-10</v>
       </c>
       <c r="C10">
         <v>2.850529051632394e-07</v>
       </c>
       <c r="D10">
-        <v>5.585956852290479e-13</v>
+        <v>1.710425631158907e-12</v>
       </c>
       <c r="E10">
         <v>3.743753451528133e-08</v>
@@ -1512,13 +1512,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.585061543743695e-08</v>
+        <v>2.614162223249203e-08</v>
       </c>
       <c r="C11">
         <v>6.909744873506488e-06</v>
       </c>
       <c r="D11">
-        <v>1.247462393283741e-10</v>
+        <v>1.261505387111096e-10</v>
       </c>
       <c r="E11">
         <v>8.334420278255721e-07</v>
@@ -1529,13 +1529,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.805854519539785e-07</v>
+        <v>2.837956264681662e-07</v>
       </c>
       <c r="C12">
         <v>7.802311695318735e-05</v>
       </c>
       <c r="D12">
-        <v>1.354009540941955e-09</v>
+        <v>1.369500746526669e-09</v>
       </c>
       <c r="E12">
         <v>7.913191881792614e-06</v>
@@ -1546,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.126852389737065e-06</v>
+        <v>2.138201446907251e-06</v>
       </c>
       <c r="C13">
         <v>0.002363537215146748</v>
       </c>
       <c r="D13">
-        <v>1.026346308343714e-08</v>
+        <v>1.031822975641364e-08</v>
       </c>
       <c r="E13">
         <v>0.0003145743538710585</v>
@@ -1563,13 +1563,13 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0001080865473026626</v>
+        <v>0.0001106283156847911</v>
       </c>
       <c r="C14">
         <v>0.07952555535886685</v>
       </c>
       <c r="D14">
-        <v>5.215887540715527e-07</v>
+        <v>5.338544599957178e-07</v>
       </c>
       <c r="E14">
         <v>0.008758930075359505</v>
@@ -1580,13 +1580,13 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2.08732728369099e-05</v>
+        <v>2.987851319332188e-05</v>
       </c>
       <c r="C15">
         <v>0.04106243227402555</v>
       </c>
       <c r="D15">
-        <v>1.007272842374457e-07</v>
+        <v>1.441834979368547e-07</v>
       </c>
       <c r="E15">
         <v>0.004897493880441664</v>
@@ -1597,13 +1597,13 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.209564082107108e-10</v>
+        <v>1.245208731184275e-10</v>
       </c>
       <c r="C16">
         <v>1.987800445014757e-07</v>
       </c>
       <c r="D16">
-        <v>5.836943063685091e-13</v>
+        <v>6.008951963640212e-13</v>
       </c>
       <c r="E16">
         <v>3.417304460728608e-08</v>
@@ -1641,13 +1641,13 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>3.242826879467631e-13</v>
+        <v>1.801969065297771e-12</v>
       </c>
       <c r="C2">
         <v>1.254558309920552e-09</v>
       </c>
       <c r="D2">
-        <v>1.564877474525071e-15</v>
+        <v>8.695687142381209e-15</v>
       </c>
       <c r="E2">
         <v>7.574659857908915e-11</v>
@@ -1658,13 +1658,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.039755738199194e-07</v>
+        <v>3.140644620452394e-07</v>
       </c>
       <c r="C3">
         <v>0.0001570849792051211</v>
       </c>
       <c r="D3">
-        <v>1.466882278818164e-09</v>
+        <v>1.515567806950324e-09</v>
       </c>
       <c r="E3">
         <v>2.06096507345781e-05</v>
@@ -1675,13 +1675,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.898356520275325e-13</v>
+        <v>4.871967991615782e-12</v>
       </c>
       <c r="C4">
         <v>3.005852006576374e-09</v>
       </c>
       <c r="D4">
-        <v>1.398647846556135e-15</v>
+        <v>2.351045322511457e-14</v>
       </c>
       <c r="E4">
         <v>2.840648822176245e-10</v>
@@ -1692,13 +1692,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.894855226151823e-13</v>
+        <v>1.024557627814938e-12</v>
       </c>
       <c r="C5">
         <v>3.88207718500781e-10</v>
       </c>
       <c r="D5">
-        <v>4.774919116136648e-15</v>
+        <v>4.944165114924844e-15</v>
       </c>
       <c r="E5">
         <v>7.122353894907845e-11</v>
@@ -1709,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.041111067511948e-08</v>
+        <v>8.135509989475759e-08</v>
       </c>
       <c r="C6">
         <v>2.809408173014375e-05</v>
       </c>
       <c r="D6">
-        <v>3.880365510529366e-10</v>
+        <v>3.925919205527994e-10</v>
       </c>
       <c r="E6">
         <v>2.713246273697744e-06</v>
@@ -1726,13 +1726,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.979639820231794e-13</v>
+        <v>4.104132392465495e-13</v>
       </c>
       <c r="C7">
         <v>5.083959143717973e-10</v>
       </c>
       <c r="D7">
-        <v>1.920438229630732e-15</v>
+        <v>1.980514092226949e-15</v>
       </c>
       <c r="E7">
         <v>4.521797898363236e-11</v>
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.849817122584606e-08</v>
+        <v>6.937874201880874e-08</v>
       </c>
       <c r="C8">
         <v>3.415079311863801e-05</v>
       </c>
       <c r="D8">
-        <v>3.305487748241617e-10</v>
+        <v>3.3479810866112e-10</v>
       </c>
       <c r="E8">
         <v>4.413579917750429e-06</v>
@@ -1760,13 +1760,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-2.751002326939419e-05</v>
+        <v>5.485829681544112e-05</v>
       </c>
       <c r="C9">
         <v>0.01593464672985375</v>
       </c>
       <c r="D9">
-        <v>-1.327539746586878e-07</v>
+        <v>2.64727400407474e-07</v>
       </c>
       <c r="E9">
         <v>0.001323571181617822</v>
@@ -1777,13 +1777,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.157553311555681e-10</v>
+        <v>3.544439933698844e-10</v>
       </c>
       <c r="C10">
         <v>2.850529051632394e-07</v>
       </c>
       <c r="D10">
-        <v>5.585956852290479e-13</v>
+        <v>1.710425631158907e-12</v>
       </c>
       <c r="E10">
         <v>3.743753451528133e-08</v>
@@ -1794,13 +1794,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2.585061543743695e-08</v>
+        <v>2.614162223249203e-08</v>
       </c>
       <c r="C11">
         <v>6.909744873506488e-06</v>
       </c>
       <c r="D11">
-        <v>1.247462393283741e-10</v>
+        <v>1.261505387111096e-10</v>
       </c>
       <c r="E11">
         <v>8.334420278255721e-07</v>
@@ -1811,13 +1811,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>2.805854519539785e-07</v>
+        <v>2.837956264681662e-07</v>
       </c>
       <c r="C12">
         <v>7.802311695318735e-05</v>
       </c>
       <c r="D12">
-        <v>1.354009540941955e-09</v>
+        <v>1.369500746526669e-09</v>
       </c>
       <c r="E12">
         <v>7.913191881792614e-06</v>
@@ -1828,13 +1828,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2.126852389737065e-06</v>
+        <v>2.138201446907251e-06</v>
       </c>
       <c r="C13">
         <v>0.002363537215146748</v>
       </c>
       <c r="D13">
-        <v>1.026346308343714e-08</v>
+        <v>1.031822975641364e-08</v>
       </c>
       <c r="E13">
         <v>0.0003145743538710585</v>
@@ -1845,13 +1845,13 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0001080865473026626</v>
+        <v>0.0001106283156847911</v>
       </c>
       <c r="C14">
         <v>0.07952555535886685</v>
       </c>
       <c r="D14">
-        <v>5.215887540715527e-07</v>
+        <v>5.338544599957178e-07</v>
       </c>
       <c r="E14">
         <v>0.008758930075359505</v>
@@ -1862,13 +1862,13 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2.08732728369099e-05</v>
+        <v>2.987851319332188e-05</v>
       </c>
       <c r="C15">
         <v>0.04106243227402555</v>
       </c>
       <c r="D15">
-        <v>1.007272842374457e-07</v>
+        <v>1.441834979368547e-07</v>
       </c>
       <c r="E15">
         <v>0.004897493880441664</v>
@@ -1879,13 +1879,13 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1.209564082107108e-10</v>
+        <v>1.245208731184275e-10</v>
       </c>
       <c r="C16">
         <v>1.987800445014757e-07</v>
       </c>
       <c r="D16">
-        <v>5.836943063685091e-13</v>
+        <v>6.008951963640212e-13</v>
       </c>
       <c r="E16">
         <v>3.417304460728608e-08</v>

--- a/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_56E5D90188FC7A9F0E100D9251A01CD88D4D1A21" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{36487736-8D00-4115-99E7-DDE9838501E0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="2240" yWindow="3180" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha_5%" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,15 @@
     <sheet name="beta_15%" sheetId="7" r:id="rId7"/>
     <sheet name="beta_20%" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -177,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4158516416540173</v>
+        <v>0.41585164165401728</v>
       </c>
     </row>
   </sheetData>
@@ -502,14 +563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4158516416540173</v>
+        <v>0.41585164165401728</v>
       </c>
     </row>
   </sheetData>
@@ -540,14 +601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4158516416540173</v>
+        <v>0.41585164165401728</v>
       </c>
     </row>
   </sheetData>
@@ -578,14 +641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4158516416540173</v>
+        <v>0.41585164165401728</v>
       </c>
     </row>
   </sheetData>
@@ -616,14 +679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -643,317 +708,317 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.714358022611696e-09</v>
+        <v>1.7143580226116959E-9</v>
       </c>
       <c r="E2">
-        <v>1.193562167556449e-06</v>
+        <v>1.193562167556449E-6</v>
       </c>
       <c r="F2">
-        <v>6.81490258780034e-11</v>
+        <v>6.8149025878003395E-11</v>
       </c>
       <c r="G2">
-        <v>4.744638982695968e-08</v>
+        <v>4.7446389826959678E-8</v>
       </c>
       <c r="H2">
-        <v>8.695687142381212e-13</v>
+        <v>8.695687142381212E-13</v>
       </c>
       <c r="I2">
-        <v>1.536304704364006e-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>1.536304704364006E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>0.0002987947687301236</v>
+        <v>2.9879476873012362E-4</v>
       </c>
       <c r="E3">
         <v>0.1494475679512236</v>
       </c>
       <c r="F3">
-        <v>1.187766625047222e-05</v>
+        <v>1.187766625047222E-5</v>
       </c>
       <c r="G3">
-        <v>0.005940828019223763</v>
+        <v>5.9408280192237628E-3</v>
       </c>
       <c r="H3">
-        <v>1.515567806950324e-07</v>
+        <v>1.5155678069503239E-7</v>
       </c>
       <c r="I3">
-        <v>3.004137533171232e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+        <v>3.004137533171232E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.635094782247962e-09</v>
+        <v>4.6350947822479623E-9</v>
       </c>
       <c r="E4">
-        <v>2.859708638453318e-06</v>
+        <v>2.8597086384533182E-6</v>
       </c>
       <c r="F4">
-        <v>1.842539248489061e-10</v>
+        <v>1.842539248489061E-10</v>
       </c>
       <c r="G4">
-        <v>1.136789138762335e-07</v>
+        <v>1.1367891387623351E-7</v>
       </c>
       <c r="H4">
-        <v>2.351045322511436e-12</v>
+        <v>2.3510453225114359E-12</v>
       </c>
       <c r="I4">
-        <v>4.689093918252694e-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+        <v>4.6890939182526942E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>9.747440301270101e-10</v>
+        <v>9.7474403012701012E-10</v>
       </c>
       <c r="E5">
-        <v>3.693332085818145e-07</v>
+        <v>3.6933320858181452E-7</v>
       </c>
       <c r="F5">
-        <v>3.874794836165964e-11</v>
+        <v>3.8747948361659642E-11</v>
       </c>
       <c r="G5">
-        <v>1.468170478818885e-08</v>
+        <v>1.4681704788188851E-8</v>
       </c>
       <c r="H5">
-        <v>4.944165114924852e-13</v>
+        <v>4.9441651149248516E-13</v>
       </c>
       <c r="I5">
-        <v>9.434543735145329e-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+        <v>9.4345437351453286E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>7.739964623749338e-05</v>
+        <v>7.7399646237493377E-5</v>
       </c>
       <c r="E6">
-        <v>0.02672815828501579</v>
+        <v>2.6728158285015791E-2</v>
       </c>
       <c r="F6">
-        <v>3.076784676722087e-06</v>
+        <v>3.0767846767220869E-6</v>
       </c>
       <c r="G6">
-        <v>0.00106249565529025</v>
+        <v>1.0624956552902499E-3</v>
       </c>
       <c r="H6">
-        <v>3.925919205527994e-08</v>
+        <v>3.925919205527994E-8</v>
       </c>
       <c r="I6">
-        <v>4.372658087712463e-06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>4.3726580877124629E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>3.904591054520191e-10</v>
+        <v>3.9045910545201911E-10</v>
       </c>
       <c r="E7">
-        <v>4.836779006093964e-07</v>
+        <v>4.8367790060939638E-7</v>
       </c>
       <c r="F7">
-        <v>1.552149978638316e-11</v>
+        <v>1.5521499786383161E-11</v>
       </c>
       <c r="G7">
-        <v>1.922712603230491e-08</v>
+        <v>1.9227126032304911E-8</v>
       </c>
       <c r="H7">
-        <v>1.980514092226956e-13</v>
+        <v>1.980514092226956E-13</v>
       </c>
       <c r="I7">
-        <v>7.637898469819795e-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+        <v>7.6378984698197946E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.600557427382793e-05</v>
+        <v>6.600557427382793E-5</v>
       </c>
       <c r="E8">
-        <v>0.03249039469599044</v>
+        <v>3.2490394695990438E-2</v>
       </c>
       <c r="F8">
-        <v>2.62384842019573e-06</v>
+        <v>2.6238484201957299E-6</v>
       </c>
       <c r="G8">
-        <v>0.001291555625907385</v>
+        <v>1.291555625907385E-3</v>
       </c>
       <c r="H8">
-        <v>3.3479810866112e-08</v>
+        <v>3.3479810866111999E-8</v>
       </c>
       <c r="I8">
-        <v>6.291624679647773e-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+        <v>6.291624679647773E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.05219110752982013</v>
+        <v>5.2191107529820133E-2</v>
       </c>
       <c r="E9">
         <v>15.15991033635969</v>
       </c>
       <c r="F9">
-        <v>0.002074696819881819</v>
+        <v>2.0746968198818191E-3</v>
       </c>
       <c r="G9">
-        <v>0.6026355686467911</v>
+        <v>0.60263556864679113</v>
       </c>
       <c r="H9">
-        <v>2.647274004074741e-05</v>
+        <v>2.6472740040747409E-5</v>
       </c>
       <c r="I9">
-        <v>0.002310217978762198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+        <v>2.3102179787621979E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.372110627769175e-07</v>
+        <v>3.3721106277691749E-7</v>
       </c>
       <c r="E10">
-        <v>0.000271193742582156</v>
+        <v>2.7119374258215601E-4</v>
       </c>
       <c r="F10">
-        <v>1.340478776336576e-08</v>
+        <v>1.3404787763365761E-8</v>
       </c>
       <c r="G10">
-        <v>1.07804724202408e-05</v>
+        <v>1.07804724202408E-5</v>
       </c>
       <c r="H10">
-        <v>1.710425631158906e-10</v>
+        <v>1.7104256311589061E-10</v>
       </c>
       <c r="I10">
-        <v>5.390535963565228e-08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>5.3905359635652279E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.487062661697324e-05</v>
+        <v>2.4870626616973239E-5</v>
       </c>
       <c r="E11">
-        <v>0.006573795736131817</v>
+        <v>6.5737957361318173E-3</v>
       </c>
       <c r="F11">
-        <v>9.886552018697952e-07</v>
+        <v>9.8865520186979523E-7</v>
       </c>
       <c r="G11">
-        <v>0.0002613210133644456</v>
+        <v>2.6132101336444558E-4</v>
       </c>
       <c r="H11">
-        <v>1.261505387111096e-08</v>
+        <v>1.261505387111096E-8</v>
       </c>
       <c r="I11">
-        <v>1.254493917565717e-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>1.2544939175657171E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>0.0002699975922935265</v>
+        <v>2.6999759229352652E-4</v>
       </c>
       <c r="E12">
-        <v>0.07422966302463373</v>
+        <v>7.4229663024633727E-2</v>
       </c>
       <c r="F12">
-        <v>1.073292314762759e-05</v>
+        <v>1.073292314762759E-5</v>
       </c>
       <c r="G12">
-        <v>0.002950771752259028</v>
+        <v>2.9507717522590281E-3</v>
       </c>
       <c r="H12">
-        <v>1.369500746526669e-07</v>
+        <v>1.3695007465266689E-7</v>
       </c>
       <c r="I12">
-        <v>1.248737424489795e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+        <v>1.2487374244897949E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0.002034242915185481</v>
+        <v>2.0342429151854811E-3</v>
       </c>
       <c r="E13">
         <v>2.248622945066248</v>
       </c>
       <c r="F13">
-        <v>8.086506508011986e-05</v>
+        <v>8.0865065080119861E-5</v>
       </c>
       <c r="G13">
-        <v>0.08938708324165567</v>
+        <v>8.9387083241655674E-2</v>
       </c>
       <c r="H13">
-        <v>1.031822975641364e-06</v>
+        <v>1.0318229756413641E-6</v>
       </c>
       <c r="I13">
-        <v>0.0004532854158962491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>4.5328541589624907E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
@@ -961,69 +1026,69 @@
         <v>0.1052496095380534</v>
       </c>
       <c r="E14">
-        <v>75.65905345305987</v>
+        <v>75.659053453059869</v>
       </c>
       <c r="F14">
-        <v>0.004183874237151203</v>
+        <v>4.1838742371512029E-3</v>
       </c>
       <c r="G14">
         <v>3.007592768646365</v>
       </c>
       <c r="H14">
-        <v>5.338544599957179e-05</v>
+        <v>5.3385445999571792E-5</v>
       </c>
       <c r="I14">
-        <v>0.0133150921973113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+        <v>1.33150921973113E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>0.02842583137697569</v>
+        <v>2.8425831376975689E-2</v>
       </c>
       <c r="E15">
-        <v>39.06599261474704</v>
+        <v>39.065992614747039</v>
       </c>
       <c r="F15">
-        <v>0.001129981423111439</v>
+        <v>1.1299814231114391E-3</v>
       </c>
       <c r="G15">
         <v>1.552948279494418</v>
       </c>
       <c r="H15">
-        <v>1.441834979368547e-05</v>
+        <v>1.441834979368547E-5</v>
       </c>
       <c r="I15">
-        <v>0.007130438180345887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>7.1304381803458869E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.184667161741281e-07</v>
+        <v>1.184667161741281E-7</v>
       </c>
       <c r="E16">
-        <v>0.000189115435214146</v>
+        <v>1.8911543521414601E-4</v>
       </c>
       <c r="F16">
-        <v>4.709279625228769e-09</v>
+        <v>4.7092796252287688E-9</v>
       </c>
       <c r="G16">
-        <v>7.51770197260474e-06</v>
+        <v>7.51770197260474E-6</v>
       </c>
       <c r="H16">
-        <v>6.00895196364021e-11</v>
+        <v>6.0089519636402102E-11</v>
       </c>
       <c r="I16">
-        <v>7.152479339102226e-08</v>
+        <v>7.1524793391022255E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1038,14 +1103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1065,317 +1130,317 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.714358022611696e-09</v>
+        <v>1.7143580226116959E-9</v>
       </c>
       <c r="E2">
-        <v>1.193562167556449e-06</v>
+        <v>1.193562167556449E-6</v>
       </c>
       <c r="F2">
-        <v>9.447900539919172e-11</v>
+        <v>9.4479005399191722E-11</v>
       </c>
       <c r="G2">
-        <v>6.577772261423278e-08</v>
+        <v>6.5777722614232777E-8</v>
       </c>
       <c r="H2">
-        <v>8.695687142381212e-13</v>
+        <v>8.695687142381212E-13</v>
       </c>
       <c r="I2">
-        <v>1.536304704364006e-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>1.536304704364006E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>0.0002987947687301236</v>
+        <v>2.9879476873012362E-4</v>
       </c>
       <c r="E3">
         <v>0.1494475679512236</v>
       </c>
       <c r="F3">
-        <v>1.646670776801776e-05</v>
+        <v>1.6466707768017759E-5</v>
       </c>
       <c r="G3">
-        <v>0.008236119522950922</v>
+        <v>8.2361195229509222E-3</v>
       </c>
       <c r="H3">
-        <v>1.515567806950324e-07</v>
+        <v>1.5155678069503239E-7</v>
       </c>
       <c r="I3">
-        <v>3.004137533171232e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+        <v>3.004137533171232E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.635094782247962e-09</v>
+        <v>4.6350947822479623E-9</v>
       </c>
       <c r="E4">
-        <v>2.859708638453318e-06</v>
+        <v>2.8597086384533182E-6</v>
       </c>
       <c r="F4">
-        <v>2.5544206004918e-10</v>
+        <v>2.5544206004918E-10</v>
       </c>
       <c r="G4">
-        <v>1.575997687349715e-07</v>
+        <v>1.5759976873497151E-7</v>
       </c>
       <c r="H4">
-        <v>2.351045322511436e-12</v>
+        <v>2.3510453225114359E-12</v>
       </c>
       <c r="I4">
-        <v>4.689093918252694e-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+        <v>4.6890939182526942E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>9.747440301270101e-10</v>
+        <v>9.7474403012701012E-10</v>
       </c>
       <c r="E5">
-        <v>3.693332085818145e-07</v>
+        <v>3.6933320858181452E-7</v>
       </c>
       <c r="F5">
-        <v>5.371856127514318e-11</v>
+        <v>5.371856127514318E-11</v>
       </c>
       <c r="G5">
-        <v>2.035411142098737e-08</v>
+        <v>2.0354111420987369E-8</v>
       </c>
       <c r="H5">
-        <v>4.944165114924852e-13</v>
+        <v>4.9441651149248516E-13</v>
       </c>
       <c r="I5">
-        <v>9.434543735145329e-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+        <v>9.4345437351453286E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>7.739964623749338e-05</v>
+        <v>7.7399646237493377E-5</v>
       </c>
       <c r="E6">
-        <v>0.02672815828501579</v>
+        <v>2.6728158285015791E-2</v>
       </c>
       <c r="F6">
-        <v>4.265527677601091e-06</v>
+        <v>4.2655276776010914E-6</v>
       </c>
       <c r="G6">
-        <v>0.001473000258763586</v>
+        <v>1.473000258763586E-3</v>
       </c>
       <c r="H6">
-        <v>3.925919205527994e-08</v>
+        <v>3.925919205527994E-8</v>
       </c>
       <c r="I6">
-        <v>4.372658087712463e-06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>4.3726580877124629E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>3.904591054520191e-10</v>
+        <v>3.9045910545201911E-10</v>
       </c>
       <c r="E7">
-        <v>4.836779006093964e-07</v>
+        <v>4.8367790060939638E-7</v>
       </c>
       <c r="F7">
-        <v>2.151836865205405e-11</v>
+        <v>2.1518368652054052E-11</v>
       </c>
       <c r="G7">
-        <v>2.66556964067099e-08</v>
+        <v>2.66556964067099E-8</v>
       </c>
       <c r="H7">
-        <v>1.980514092226956e-13</v>
+        <v>1.980514092226956E-13</v>
       </c>
       <c r="I7">
-        <v>7.637898469819795e-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+        <v>7.6378984698197946E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.600557427382793e-05</v>
+        <v>6.600557427382793E-5</v>
       </c>
       <c r="E8">
-        <v>0.03249039469599044</v>
+        <v>3.2490394695990438E-2</v>
       </c>
       <c r="F8">
-        <v>3.637595488189477e-06</v>
+        <v>3.6375954881894769E-6</v>
       </c>
       <c r="G8">
-        <v>0.001790559577064278</v>
+        <v>1.790559577064278E-3</v>
       </c>
       <c r="H8">
-        <v>3.3479810866112e-08</v>
+        <v>3.3479810866111999E-8</v>
       </c>
       <c r="I8">
-        <v>6.291624679647773e-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+        <v>6.291624679647773E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.05219110752982013</v>
+        <v>5.2191107529820133E-2</v>
       </c>
       <c r="E9">
         <v>15.15991033635969</v>
       </c>
       <c r="F9">
-        <v>0.002876274305053105</v>
+        <v>2.876274305053105E-3</v>
       </c>
       <c r="G9">
-        <v>0.8354691561673904</v>
+        <v>0.83546915616739037</v>
       </c>
       <c r="H9">
-        <v>2.647274004074741e-05</v>
+        <v>2.6472740040747409E-5</v>
       </c>
       <c r="I9">
-        <v>0.002310217978762198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+        <v>2.3102179787621979E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.372110627769175e-07</v>
+        <v>3.3721106277691749E-7</v>
       </c>
       <c r="E10">
-        <v>0.000271193742582156</v>
+        <v>2.7119374258215601E-4</v>
       </c>
       <c r="F10">
-        <v>1.858384619814256e-08</v>
+        <v>1.8583846198142559E-8</v>
       </c>
       <c r="G10">
-        <v>1.494560338721614e-05</v>
+        <v>1.4945603387216139E-5</v>
       </c>
       <c r="H10">
-        <v>1.710425631158906e-10</v>
+        <v>1.7104256311589061E-10</v>
       </c>
       <c r="I10">
-        <v>5.390535963565228e-08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>5.3905359635652279E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.487062661697324e-05</v>
+        <v>2.4870626616973239E-5</v>
       </c>
       <c r="E11">
-        <v>0.006573795736131817</v>
+        <v>6.5737957361318173E-3</v>
       </c>
       <c r="F11">
-        <v>1.370630892400541e-06</v>
+        <v>1.370630892400541E-6</v>
       </c>
       <c r="G11">
-        <v>0.0003622847005440579</v>
+        <v>3.6228470054405792E-4</v>
       </c>
       <c r="H11">
-        <v>1.261505387111096e-08</v>
+        <v>1.261505387111096E-8</v>
       </c>
       <c r="I11">
-        <v>1.254493917565717e-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>1.2544939175657171E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>0.0002699975922935265</v>
+        <v>2.6999759229352652E-4</v>
       </c>
       <c r="E12">
-        <v>0.07422966302463373</v>
+        <v>7.4229663024633727E-2</v>
       </c>
       <c r="F12">
-        <v>1.48796830321403e-05</v>
+        <v>1.48796830321403E-5</v>
       </c>
       <c r="G12">
-        <v>0.004090828544087047</v>
+        <v>4.0908285440870466E-3</v>
       </c>
       <c r="H12">
-        <v>1.369500746526669e-07</v>
+        <v>1.3695007465266689E-7</v>
       </c>
       <c r="I12">
-        <v>1.248737424489795e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+        <v>1.2487374244897949E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0.002034242915185481</v>
+        <v>2.0342429151854811E-3</v>
       </c>
       <c r="E13">
         <v>2.248622945066248</v>
       </c>
       <c r="F13">
-        <v>0.000112107998931451</v>
+        <v>1.12107998931451E-4</v>
       </c>
       <c r="G13">
         <v>0.1239225742613624</v>
       </c>
       <c r="H13">
-        <v>1.031822975641364e-06</v>
+        <v>1.0318229756413641E-6</v>
       </c>
       <c r="I13">
-        <v>0.0004532854158962491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>4.5328541589624907E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1383,69 +1448,69 @@
         <v>0.1052496095380534</v>
       </c>
       <c r="E14">
-        <v>75.65905345305987</v>
+        <v>75.659053453059869</v>
       </c>
       <c r="F14">
-        <v>0.005800351091576434</v>
+        <v>5.8003510915764344E-3</v>
       </c>
       <c r="G14">
-        <v>4.169602863233692</v>
+        <v>4.1696028632336919</v>
       </c>
       <c r="H14">
-        <v>5.338544599957179e-05</v>
+        <v>5.3385445999571792E-5</v>
       </c>
       <c r="I14">
-        <v>0.0133150921973113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+        <v>1.33150921973113E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>0.02842583137697569</v>
+        <v>2.8425831376975689E-2</v>
       </c>
       <c r="E15">
-        <v>39.06599261474704</v>
+        <v>39.065992614747039</v>
       </c>
       <c r="F15">
-        <v>0.001566559750483403</v>
+        <v>1.566559750483403E-3</v>
       </c>
       <c r="G15">
-        <v>2.152943596665202</v>
+        <v>2.1529435966652022</v>
       </c>
       <c r="H15">
-        <v>1.441834979368547e-05</v>
+        <v>1.441834979368547E-5</v>
       </c>
       <c r="I15">
-        <v>0.007130438180345887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>7.1304381803458869E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.184667161741281e-07</v>
+        <v>1.184667161741281E-7</v>
       </c>
       <c r="E16">
-        <v>0.000189115435214146</v>
+        <v>1.8911543521414601E-4</v>
       </c>
       <c r="F16">
-        <v>6.528751503136346e-09</v>
+        <v>6.5287515031363457E-9</v>
       </c>
       <c r="G16">
-        <v>1.042223268944026e-05</v>
+        <v>1.0422232689440259E-5</v>
       </c>
       <c r="H16">
-        <v>6.00895196364021e-11</v>
+        <v>6.0089519636402102E-11</v>
       </c>
       <c r="I16">
-        <v>7.152479339102226e-08</v>
+        <v>7.1524793391022255E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1460,14 +1525,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1481,297 +1551,297 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.801969065297766e-10</v>
+        <v>1.8019690652977661E-10</v>
       </c>
       <c r="E2">
-        <v>1.254558309920552e-07</v>
+        <v>1.2545583099205521E-7</v>
       </c>
       <c r="F2">
-        <v>8.695687142381212e-13</v>
+        <v>8.695687142381212E-13</v>
       </c>
       <c r="G2">
-        <v>1.536304704364006e-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>1.536304704364006E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>3.140644620452394e-05</v>
+        <v>3.1406446204523942E-5</v>
       </c>
       <c r="E3">
-        <v>0.0157084979205121</v>
+        <v>1.5708497920512099E-2</v>
       </c>
       <c r="F3">
-        <v>1.515567806950324e-07</v>
+        <v>1.5155678069503239E-7</v>
       </c>
       <c r="G3">
-        <v>3.004137533171232e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+        <v>3.004137533171232E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.871967991615782e-10</v>
+        <v>4.8719679916157815E-10</v>
       </c>
       <c r="E4">
-        <v>3.005852006576374e-07</v>
+        <v>3.0058520065763741E-7</v>
       </c>
       <c r="F4">
-        <v>2.351045322511436e-12</v>
+        <v>2.3510453225114359E-12</v>
       </c>
       <c r="G4">
-        <v>4.689093918252694e-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+        <v>4.6890939182526942E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.024557627814937e-10</v>
+        <v>1.0245576278149371E-10</v>
       </c>
       <c r="E5">
-        <v>3.88207718500781e-08</v>
+        <v>3.8820771850078101E-8</v>
       </c>
       <c r="F5">
-        <v>4.944165114924852e-13</v>
+        <v>4.9441651149248516E-13</v>
       </c>
       <c r="G5">
-        <v>9.434543735145329e-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+        <v>9.4345437351453286E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>8.135509989475761e-06</v>
+        <v>8.1355099894757606E-6</v>
       </c>
       <c r="E6">
-        <v>0.002809408173014375</v>
+        <v>2.8094081730143752E-3</v>
       </c>
       <c r="F6">
-        <v>3.925919205527994e-08</v>
+        <v>3.925919205527994E-8</v>
       </c>
       <c r="G6">
-        <v>4.372658087712463e-06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>4.3726580877124629E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>4.1041323924655e-11</v>
+        <v>4.1041323924655003E-11</v>
       </c>
       <c r="E7">
-        <v>5.083959143717972e-08</v>
+        <v>5.083959143717972E-8</v>
       </c>
       <c r="F7">
-        <v>1.980514092226956e-13</v>
+        <v>1.980514092226956E-13</v>
       </c>
       <c r="G7">
-        <v>7.637898469819795e-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+        <v>7.6378984698197946E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.937874201880874e-06</v>
+        <v>6.9378742018808736E-6</v>
       </c>
       <c r="E8">
-        <v>0.003415079311863801</v>
+        <v>3.415079311863801E-3</v>
       </c>
       <c r="F8">
-        <v>3.3479810866112e-08</v>
+        <v>3.3479810866111999E-8</v>
       </c>
       <c r="G8">
-        <v>6.291624679647773e-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+        <v>6.291624679647773E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.005485829681544112</v>
+        <v>5.4858296815441122E-3</v>
       </c>
       <c r="E9">
         <v>1.593464672985375</v>
       </c>
       <c r="F9">
-        <v>2.647274004074741e-05</v>
+        <v>2.6472740040747409E-5</v>
       </c>
       <c r="G9">
-        <v>0.002310217978762198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+        <v>2.3102179787621979E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.544439933698844e-08</v>
+        <v>3.5444399336988439E-8</v>
       </c>
       <c r="E10">
-        <v>2.850529051632394e-05</v>
+        <v>2.8505290516323941E-5</v>
       </c>
       <c r="F10">
-        <v>1.710425631158906e-10</v>
+        <v>1.7104256311589061E-10</v>
       </c>
       <c r="G10">
-        <v>5.390535963565228e-08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>5.3905359635652279E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.614162223249204e-06</v>
+        <v>2.614162223249204E-6</v>
       </c>
       <c r="E11">
-        <v>0.0006909744873506488</v>
+        <v>6.9097448735064878E-4</v>
       </c>
       <c r="F11">
-        <v>1.261505387111096e-08</v>
+        <v>1.261505387111096E-8</v>
       </c>
       <c r="G11">
-        <v>1.254493917565717e-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>1.2544939175657171E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>2.837956264681662e-05</v>
+        <v>2.837956264681662E-5</v>
       </c>
       <c r="E12">
-        <v>0.007802311695318734</v>
+        <v>7.8023116953187342E-3</v>
       </c>
       <c r="F12">
-        <v>1.369500746526669e-07</v>
+        <v>1.3695007465266689E-7</v>
       </c>
       <c r="G12">
-        <v>1.248737424489795e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+        <v>1.2487374244897949E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0.0002138201446907251</v>
+        <v>2.138201446907251E-4</v>
       </c>
       <c r="E13">
-        <v>0.2363537215146748</v>
+        <v>0.23635372151467479</v>
       </c>
       <c r="F13">
-        <v>1.031822975641364e-06</v>
+        <v>1.0318229756413641E-6</v>
       </c>
       <c r="G13">
-        <v>0.0004532854158962491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>4.5328541589624907E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>0.0110628315684791</v>
+        <v>1.1062831568479099E-2</v>
       </c>
       <c r="E14">
-        <v>7.952555535886686</v>
+        <v>7.9525555358866864</v>
       </c>
       <c r="F14">
-        <v>5.338544599957179e-05</v>
+        <v>5.3385445999571792E-5</v>
       </c>
       <c r="G14">
-        <v>0.0133150921973113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+        <v>1.33150921973113E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>0.002987851319332188</v>
+        <v>2.987851319332188E-3</v>
       </c>
       <c r="E15">
-        <v>4.106243227402556</v>
+        <v>4.1062432274025564</v>
       </c>
       <c r="F15">
-        <v>1.441834979368547e-05</v>
+        <v>1.441834979368547E-5</v>
       </c>
       <c r="G15">
-        <v>0.007130438180345887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>7.1304381803458869E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.245208731184275e-08</v>
+        <v>1.2452087311842751E-8</v>
       </c>
       <c r="E16">
-        <v>1.987800445014757e-05</v>
+        <v>1.9878004450147568E-5</v>
       </c>
       <c r="F16">
-        <v>6.00895196364021e-11</v>
+        <v>6.0089519636402102E-11</v>
       </c>
       <c r="G16">
-        <v>7.152479339102226e-08</v>
+        <v>7.1524793391022255E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1786,14 +1856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1807,297 +1877,297 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.801969065297766e-10</v>
+        <v>1.8019690652977661E-10</v>
       </c>
       <c r="E2">
-        <v>1.254558309920552e-07</v>
+        <v>1.2545583099205521E-7</v>
       </c>
       <c r="F2">
-        <v>8.695687142381212e-13</v>
+        <v>8.695687142381212E-13</v>
       </c>
       <c r="G2">
-        <v>1.536304704364006e-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>1.536304704364006E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>3.140644620452394e-05</v>
+        <v>3.1406446204523942E-5</v>
       </c>
       <c r="E3">
-        <v>0.0157084979205121</v>
+        <v>1.5708497920512099E-2</v>
       </c>
       <c r="F3">
-        <v>1.515567806950324e-07</v>
+        <v>1.5155678069503239E-7</v>
       </c>
       <c r="G3">
-        <v>3.004137533171232e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+        <v>3.004137533171232E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.871967991615782e-10</v>
+        <v>4.8719679916157815E-10</v>
       </c>
       <c r="E4">
-        <v>3.005852006576374e-07</v>
+        <v>3.0058520065763741E-7</v>
       </c>
       <c r="F4">
-        <v>2.351045322511436e-12</v>
+        <v>2.3510453225114359E-12</v>
       </c>
       <c r="G4">
-        <v>4.689093918252694e-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+        <v>4.6890939182526942E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.024557627814937e-10</v>
+        <v>1.0245576278149371E-10</v>
       </c>
       <c r="E5">
-        <v>3.88207718500781e-08</v>
+        <v>3.8820771850078101E-8</v>
       </c>
       <c r="F5">
-        <v>4.944165114924852e-13</v>
+        <v>4.9441651149248516E-13</v>
       </c>
       <c r="G5">
-        <v>9.434543735145329e-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+        <v>9.4345437351453286E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>8.135509989475761e-06</v>
+        <v>8.1355099894757606E-6</v>
       </c>
       <c r="E6">
-        <v>0.002809408173014375</v>
+        <v>2.8094081730143752E-3</v>
       </c>
       <c r="F6">
-        <v>3.925919205527994e-08</v>
+        <v>3.925919205527994E-8</v>
       </c>
       <c r="G6">
-        <v>4.372658087712463e-06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>4.3726580877124629E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>4.1041323924655e-11</v>
+        <v>4.1041323924655003E-11</v>
       </c>
       <c r="E7">
-        <v>5.083959143717972e-08</v>
+        <v>5.083959143717972E-8</v>
       </c>
       <c r="F7">
-        <v>1.980514092226956e-13</v>
+        <v>1.980514092226956E-13</v>
       </c>
       <c r="G7">
-        <v>7.637898469819795e-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+        <v>7.6378984698197946E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.937874201880874e-06</v>
+        <v>6.9378742018808736E-6</v>
       </c>
       <c r="E8">
-        <v>0.003415079311863801</v>
+        <v>3.415079311863801E-3</v>
       </c>
       <c r="F8">
-        <v>3.3479810866112e-08</v>
+        <v>3.3479810866111999E-8</v>
       </c>
       <c r="G8">
-        <v>6.291624679647773e-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+        <v>6.291624679647773E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.005485829681544112</v>
+        <v>5.4858296815441122E-3</v>
       </c>
       <c r="E9">
         <v>1.593464672985375</v>
       </c>
       <c r="F9">
-        <v>2.647274004074741e-05</v>
+        <v>2.6472740040747409E-5</v>
       </c>
       <c r="G9">
-        <v>0.002310217978762198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+        <v>2.3102179787621979E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.544439933698844e-08</v>
+        <v>3.5444399336988439E-8</v>
       </c>
       <c r="E10">
-        <v>2.850529051632394e-05</v>
+        <v>2.8505290516323941E-5</v>
       </c>
       <c r="F10">
-        <v>1.710425631158906e-10</v>
+        <v>1.7104256311589061E-10</v>
       </c>
       <c r="G10">
-        <v>5.390535963565228e-08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>5.3905359635652279E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.614162223249204e-06</v>
+        <v>2.614162223249204E-6</v>
       </c>
       <c r="E11">
-        <v>0.0006909744873506488</v>
+        <v>6.9097448735064878E-4</v>
       </c>
       <c r="F11">
-        <v>1.261505387111096e-08</v>
+        <v>1.261505387111096E-8</v>
       </c>
       <c r="G11">
-        <v>1.254493917565717e-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>1.2544939175657171E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>2.837956264681662e-05</v>
+        <v>2.837956264681662E-5</v>
       </c>
       <c r="E12">
-        <v>0.007802311695318734</v>
+        <v>7.8023116953187342E-3</v>
       </c>
       <c r="F12">
-        <v>1.369500746526669e-07</v>
+        <v>1.3695007465266689E-7</v>
       </c>
       <c r="G12">
-        <v>1.248737424489795e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+        <v>1.2487374244897949E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0.0002138201446907251</v>
+        <v>2.138201446907251E-4</v>
       </c>
       <c r="E13">
-        <v>0.2363537215146748</v>
+        <v>0.23635372151467479</v>
       </c>
       <c r="F13">
-        <v>1.031822975641364e-06</v>
+        <v>1.0318229756413641E-6</v>
       </c>
       <c r="G13">
-        <v>0.0004532854158962491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>4.5328541589624907E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>0.0110628315684791</v>
+        <v>1.1062831568479099E-2</v>
       </c>
       <c r="E14">
-        <v>7.952555535886686</v>
+        <v>7.9525555358866864</v>
       </c>
       <c r="F14">
-        <v>5.338544599957179e-05</v>
+        <v>5.3385445999571792E-5</v>
       </c>
       <c r="G14">
-        <v>0.0133150921973113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+        <v>1.33150921973113E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>0.002987851319332188</v>
+        <v>2.987851319332188E-3</v>
       </c>
       <c r="E15">
-        <v>4.106243227402556</v>
+        <v>4.1062432274025564</v>
       </c>
       <c r="F15">
-        <v>1.441834979368547e-05</v>
+        <v>1.441834979368547E-5</v>
       </c>
       <c r="G15">
-        <v>0.007130438180345887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>7.1304381803458869E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.245208731184275e-08</v>
+        <v>1.2452087311842751E-8</v>
       </c>
       <c r="E16">
-        <v>1.987800445014757e-05</v>
+        <v>1.9878004450147568E-5</v>
       </c>
       <c r="F16">
-        <v>6.00895196364021e-11</v>
+        <v>6.0089519636402102E-11</v>
       </c>
       <c r="G16">
-        <v>7.152479339102226e-08</v>
+        <v>7.1524793391022255E-8</v>
       </c>
     </row>
   </sheetData>

--- a/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients conventional - symbolic - thresholds.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_56E5D90188FC7A9F0E100D9251A01CD88D4D1A21" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{36487736-8D00-4115-99E7-DDE9838501E0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2240" yWindow="3180" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="alpha_5%" sheetId="1" r:id="rId1"/>
@@ -22,15 +16,7 @@
     <sheet name="beta_15%" sheetId="7" r:id="rId7"/>
     <sheet name="beta_20%" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -127,8 +113,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,11 +166,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -194,14 +177,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -248,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,27 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,24 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,14 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.41585164165401728</v>
+        <v>0.004526757406161222</v>
       </c>
     </row>
   </sheetData>
@@ -563,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -592,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.41585164165401728</v>
+        <v>0.004526757406161222</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -632,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.41585164165401728</v>
+        <v>0.004526757406161222</v>
       </c>
     </row>
   </sheetData>
@@ -641,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.41585164165401728</v>
+        <v>0.004526757406161222</v>
       </c>
     </row>
   </sheetData>
@@ -679,16 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,387 +643,387 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.7143580226116959E-9</v>
+        <v>1.714293498058245e-11</v>
       </c>
       <c r="E2">
-        <v>1.193562167556449E-6</v>
+        <v>9.488920810459759e-09</v>
       </c>
       <c r="F2">
-        <v>6.8149025878003395E-11</v>
+        <v>6.814646090300698e-11</v>
       </c>
       <c r="G2">
-        <v>4.7446389826959678E-8</v>
+        <v>4.744460405229879e-10</v>
       </c>
       <c r="H2">
-        <v>8.695687142381212E-13</v>
+        <v>8.695359856410359e-15</v>
       </c>
       <c r="I2">
-        <v>1.536304704364006E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+        <v>7.548552275642408e-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>2.9879476873012362E-4</v>
+        <v>2.987835227717113e-06</v>
       </c>
       <c r="E3">
-        <v>0.1494475679512236</v>
+        <v>0.001188120883982272</v>
       </c>
       <c r="F3">
-        <v>1.187766625047222E-5</v>
+        <v>1.187721920201399e-05</v>
       </c>
       <c r="G3">
-        <v>5.9408280192237628E-3</v>
+        <v>5.940604419911359e-05</v>
       </c>
       <c r="H3">
-        <v>1.5155678069503239E-7</v>
+        <v>1.515510764410388e-09</v>
       </c>
       <c r="I3">
-        <v>3.004137533171232E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>2.057760404027956e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.6350947822479623E-9</v>
+        <v>4.634920327777492e-11</v>
       </c>
       <c r="E4">
-        <v>2.8597086384533182E-6</v>
+        <v>2.273492705187295e-08</v>
       </c>
       <c r="F4">
-        <v>1.842539248489061E-10</v>
+        <v>1.842469899484561e-10</v>
       </c>
       <c r="G4">
-        <v>1.1367891387623351E-7</v>
+        <v>1.136746352593648e-09</v>
       </c>
       <c r="H4">
-        <v>2.3510453225114359E-12</v>
+        <v>2.350956834489945e-14</v>
       </c>
       <c r="I4">
-        <v>4.6890939182526942E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>2.834413365153494e-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>9.7474403012701012E-10</v>
+        <v>9.747073429692263e-12</v>
       </c>
       <c r="E5">
-        <v>3.6933320858181452E-7</v>
+        <v>2.936230440414078e-09</v>
       </c>
       <c r="F5">
-        <v>3.8747948361659642E-11</v>
+        <v>3.874648997663609e-11</v>
       </c>
       <c r="G5">
-        <v>1.4681704788188851E-8</v>
+        <v>1.468115220207039e-10</v>
       </c>
       <c r="H5">
-        <v>4.9441651149248516E-13</v>
+        <v>4.943979027747006e-15</v>
       </c>
       <c r="I5">
-        <v>9.4345437351453286E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>7.114419733054938e-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>7.7399646237493377E-5</v>
+        <v>7.739673309009656e-07</v>
       </c>
       <c r="E6">
-        <v>2.6728158285015791E-2</v>
+        <v>0.0002124911330720055</v>
       </c>
       <c r="F6">
-        <v>3.0767846767220869E-6</v>
+        <v>3.076668873514873e-06</v>
       </c>
       <c r="G6">
-        <v>1.0624956552902499E-3</v>
+        <v>1.062455665360027e-05</v>
       </c>
       <c r="H6">
-        <v>3.925919205527994E-8</v>
+        <v>3.925771442820157e-10</v>
       </c>
       <c r="I6">
-        <v>4.3726580877124629E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>2.707642353886108e-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>3.9045910545201911E-10</v>
+        <v>3.904444094555655e-12</v>
       </c>
       <c r="E7">
-        <v>4.8367790060939638E-7</v>
+        <v>3.845280473364975e-09</v>
       </c>
       <c r="F7">
-        <v>1.5521499786383161E-11</v>
+        <v>1.552091559228286e-11</v>
       </c>
       <c r="G7">
-        <v>1.9227126032304911E-8</v>
+        <v>1.922640236682488e-10</v>
       </c>
       <c r="H7">
-        <v>1.980514092226956E-13</v>
+        <v>1.980439550161803e-15</v>
       </c>
       <c r="I7">
-        <v>7.6378984698197946E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+        <v>4.511296240073644e-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.600557427382793E-5</v>
+        <v>6.60030899734956e-07</v>
       </c>
       <c r="E8">
-        <v>3.2490394695990438E-2</v>
+        <v>0.0002583014029357245</v>
       </c>
       <c r="F8">
-        <v>2.6238484201957299E-6</v>
+        <v>2.623749664483444e-06</v>
       </c>
       <c r="G8">
-        <v>1.291555625907385E-3</v>
+        <v>1.291507014678622e-05</v>
       </c>
       <c r="H8">
-        <v>3.3479810866111999E-8</v>
+        <v>3.347855076185298e-10</v>
       </c>
       <c r="I8">
-        <v>6.291624679647773E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+        <v>4.40718712112366e-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>5.2191107529820133E-2</v>
+        <v>0.0005218914317473031</v>
       </c>
       <c r="E9">
-        <v>15.15991033635969</v>
+        <v>0.1205225773617561</v>
       </c>
       <c r="F9">
-        <v>2.0746968198818191E-3</v>
+        <v>0.002074618732992101</v>
       </c>
       <c r="G9">
-        <v>0.60263556864679113</v>
+        <v>0.006026128868087807</v>
       </c>
       <c r="H9">
-        <v>2.6472740040747409E-5</v>
+        <v>2.647174366676529e-07</v>
       </c>
       <c r="I9">
-        <v>2.3102179787621979E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+        <v>0.001320250126347522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.3721106277691749E-7</v>
+        <v>3.371983709161991e-09</v>
       </c>
       <c r="E10">
-        <v>2.7119374258215601E-4</v>
+        <v>2.156013333534705e-06</v>
       </c>
       <c r="F10">
-        <v>1.3404787763365761E-8</v>
+        <v>1.340428323751227e-08</v>
       </c>
       <c r="G10">
-        <v>1.07804724202408E-5</v>
+        <v>1.078006666767352e-07</v>
       </c>
       <c r="H10">
-        <v>1.7104256311589061E-10</v>
+        <v>1.710361254611762e-12</v>
       </c>
       <c r="I10">
-        <v>5.3905359635652279E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+        <v>3.738152618359217e-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.4870626616973239E-5</v>
+        <v>2.486969054291208e-07</v>
       </c>
       <c r="E11">
-        <v>6.5737957361318173E-3</v>
+        <v>5.226223556666367e-05</v>
       </c>
       <c r="F11">
-        <v>9.8865520186979523E-7</v>
+        <v>9.88617991127012e-07</v>
       </c>
       <c r="G11">
-        <v>2.6132101336444558E-4</v>
+        <v>2.613111778333184e-06</v>
       </c>
       <c r="H11">
-        <v>1.261505387111096E-8</v>
+        <v>1.261457906905266e-10</v>
       </c>
       <c r="I11">
-        <v>1.2544939175657171E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+        <v>8.320146564675702e-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>2.6999759229352652E-4</v>
+        <v>2.699874301956181e-06</v>
       </c>
       <c r="E12">
-        <v>7.4229663024633727E-2</v>
+        <v>0.0005901321383785816</v>
       </c>
       <c r="F12">
-        <v>1.073292314762759E-5</v>
+        <v>1.073251918470725e-05</v>
       </c>
       <c r="G12">
-        <v>2.9507717522590281E-3</v>
+        <v>2.950660691892908e-05</v>
       </c>
       <c r="H12">
-        <v>1.3695007465266689E-7</v>
+        <v>1.369449201620088e-09</v>
       </c>
       <c r="I12">
-        <v>1.2487374244897949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+        <v>7.897728291802077e-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>2.0342429151854811E-3</v>
+        <v>2.034166350889119e-05</v>
       </c>
       <c r="E13">
-        <v>2.248622945066248</v>
+        <v>0.01787674378285562</v>
       </c>
       <c r="F13">
-        <v>8.0865065080119861E-5</v>
+        <v>8.086202150220598e-05</v>
       </c>
       <c r="G13">
-        <v>8.9387083241655674E-2</v>
+        <v>0.0008938371891427808</v>
       </c>
       <c r="H13">
-        <v>1.0318229756413641E-6</v>
+        <v>1.031784140161338e-08</v>
       </c>
       <c r="I13">
-        <v>4.5328541589624907E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+        <v>0.0003141026158488695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>0.1052496095380534</v>
+        <v>0.0010524564818111</v>
       </c>
       <c r="E14">
-        <v>75.659053453059869</v>
+        <v>0.6014959139331744</v>
       </c>
       <c r="F14">
-        <v>4.1838742371512029E-3</v>
+        <v>0.004183716765600168</v>
       </c>
       <c r="G14">
-        <v>3.007592768646365</v>
+        <v>0.03007479569665872</v>
       </c>
       <c r="H14">
-        <v>5.3385445999571792E-5</v>
+        <v>5.338343669228678e-07</v>
       </c>
       <c r="I14">
-        <v>1.33150921973113E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+        <v>0.008743494400019989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>2.8425831376975689E-2</v>
+        <v>0.0002842476149305886</v>
       </c>
       <c r="E15">
-        <v>39.065992614747039</v>
+        <v>0.3105779660076304</v>
       </c>
       <c r="F15">
-        <v>1.1299814231114391E-3</v>
+        <v>0.001129938893169751</v>
       </c>
       <c r="G15">
-        <v>1.552948279494418</v>
+        <v>0.01552889830038152</v>
       </c>
       <c r="H15">
-        <v>1.441834979368547E-5</v>
+        <v>1.441780711965259e-07</v>
       </c>
       <c r="I15">
-        <v>7.1304381803458869E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+        <v>0.004889906196801114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.184667161741281E-7</v>
+        <v>1.184622573552238e-09</v>
       </c>
       <c r="E16">
-        <v>1.8911543521414601E-4</v>
+        <v>1.503483804665578e-06</v>
       </c>
       <c r="F16">
-        <v>4.7092796252287688E-9</v>
+        <v>4.709102378608817e-09</v>
       </c>
       <c r="G16">
-        <v>7.51770197260474E-6</v>
+        <v>7.517419023327889e-08</v>
       </c>
       <c r="H16">
-        <v>6.0089519636402102E-11</v>
+        <v>6.008725800296835e-13</v>
       </c>
       <c r="I16">
-        <v>7.1524793391022255E-8</v>
+        <v>3.404791824932264e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1103,14 +1038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,387 +1065,387 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.7143580226116959E-9</v>
+        <v>1.714293498058245e-11</v>
       </c>
       <c r="E2">
-        <v>1.193562167556449E-6</v>
+        <v>9.488920810459759e-09</v>
       </c>
       <c r="F2">
-        <v>9.4479005399191722E-11</v>
+        <v>9.447544942339582e-13</v>
       </c>
       <c r="G2">
-        <v>6.5777722614232777E-8</v>
+        <v>4.744460405229879e-10</v>
       </c>
       <c r="H2">
-        <v>8.695687142381212E-13</v>
+        <v>8.695359856410359e-15</v>
       </c>
       <c r="I2">
-        <v>1.536304704364006E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+        <v>7.548552275642408e-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>2.9879476873012362E-4</v>
+        <v>2.987835227717113e-06</v>
       </c>
       <c r="E3">
-        <v>0.1494475679512236</v>
+        <v>0.001188120883982272</v>
       </c>
       <c r="F3">
-        <v>1.6466707768017759E-5</v>
+        <v>1.646608799842965e-07</v>
       </c>
       <c r="G3">
-        <v>8.2361195229509222E-3</v>
+        <v>5.940604419911359e-05</v>
       </c>
       <c r="H3">
-        <v>1.5155678069503239E-7</v>
+        <v>1.515510764410388e-09</v>
       </c>
       <c r="I3">
-        <v>3.004137533171232E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>2.057760404027956e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.6350947822479623E-9</v>
+        <v>4.634920327777492e-11</v>
       </c>
       <c r="E4">
-        <v>2.8597086384533182E-6</v>
+        <v>2.273492705187295e-08</v>
       </c>
       <c r="F4">
-        <v>2.5544206004918E-10</v>
+        <v>2.554324457885414e-12</v>
       </c>
       <c r="G4">
-        <v>1.5759976873497151E-7</v>
+        <v>1.136746352593648e-09</v>
       </c>
       <c r="H4">
-        <v>2.3510453225114359E-12</v>
+        <v>2.350956834489945e-14</v>
       </c>
       <c r="I4">
-        <v>4.6890939182526942E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>2.834413365153494e-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>9.7474403012701012E-10</v>
+        <v>9.747073429692263e-12</v>
       </c>
       <c r="E5">
-        <v>3.6933320858181452E-7</v>
+        <v>2.936230440414078e-09</v>
       </c>
       <c r="F5">
-        <v>5.371856127514318E-11</v>
+        <v>5.371653943015364e-13</v>
       </c>
       <c r="G5">
-        <v>2.0354111420987369E-8</v>
+        <v>1.468115220207039e-10</v>
       </c>
       <c r="H5">
-        <v>4.9441651149248516E-13</v>
+        <v>4.943979027747006e-15</v>
       </c>
       <c r="I5">
-        <v>9.4345437351453286E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>7.114419733054938e-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>7.7399646237493377E-5</v>
+        <v>7.739673309009656e-07</v>
       </c>
       <c r="E6">
-        <v>2.6728158285015791E-2</v>
+        <v>0.0002124911330720055</v>
       </c>
       <c r="F6">
-        <v>4.2655276776010914E-6</v>
+        <v>4.265367132799479e-08</v>
       </c>
       <c r="G6">
-        <v>1.473000258763586E-3</v>
+        <v>1.062455665360027e-05</v>
       </c>
       <c r="H6">
-        <v>3.925919205527994E-8</v>
+        <v>3.925771442820157e-10</v>
       </c>
       <c r="I6">
-        <v>4.3726580877124629E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>2.707642353886108e-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>3.9045910545201911E-10</v>
+        <v>3.904444094555655e-12</v>
       </c>
       <c r="E7">
-        <v>4.8367790060939638E-7</v>
+        <v>3.845280473364975e-09</v>
       </c>
       <c r="F7">
-        <v>2.1518368652054052E-11</v>
+        <v>2.151755874939069e-13</v>
       </c>
       <c r="G7">
-        <v>2.66556964067099E-8</v>
+        <v>1.922640236682488e-10</v>
       </c>
       <c r="H7">
-        <v>1.980514092226956E-13</v>
+        <v>1.980439550161803e-15</v>
       </c>
       <c r="I7">
-        <v>7.6378984698197946E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+        <v>4.511296240073644e-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.600557427382793E-5</v>
+        <v>6.60030899734956e-07</v>
       </c>
       <c r="E8">
-        <v>3.2490394695990438E-2</v>
+        <v>0.0002583014029357245</v>
       </c>
       <c r="F8">
-        <v>3.6375954881894769E-6</v>
+        <v>3.637458577333393e-08</v>
       </c>
       <c r="G8">
-        <v>1.790559577064278E-3</v>
+        <v>1.291507014678622e-05</v>
       </c>
       <c r="H8">
-        <v>3.3479810866111999E-8</v>
+        <v>3.347855076185298e-10</v>
       </c>
       <c r="I8">
-        <v>6.291624679647773E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+        <v>4.40718712112366e-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>5.2191107529820133E-2</v>
+        <v>0.0005218914317473031</v>
       </c>
       <c r="E9">
-        <v>15.15991033635969</v>
+        <v>0.1205225773617561</v>
       </c>
       <c r="F9">
-        <v>2.876274305053105E-3</v>
+        <v>2.876166048602183e-05</v>
       </c>
       <c r="G9">
-        <v>0.83546915616739037</v>
+        <v>0.006026128868087807</v>
       </c>
       <c r="H9">
-        <v>2.6472740040747409E-5</v>
+        <v>2.647174366676529e-07</v>
       </c>
       <c r="I9">
-        <v>2.3102179787621979E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+        <v>0.001320250126347522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.3721106277691749E-7</v>
+        <v>3.371983709161991e-09</v>
       </c>
       <c r="E10">
-        <v>2.7119374258215601E-4</v>
+        <v>2.156013333534705e-06</v>
       </c>
       <c r="F10">
-        <v>1.8583846198142559E-8</v>
+        <v>1.858314674425864e-10</v>
       </c>
       <c r="G10">
-        <v>1.4945603387216139E-5</v>
+        <v>1.078006666767352e-07</v>
       </c>
       <c r="H10">
-        <v>1.7104256311589061E-10</v>
+        <v>1.710361254611762e-12</v>
       </c>
       <c r="I10">
-        <v>5.3905359635652279E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+        <v>3.738152618359217e-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.4870626616973239E-5</v>
+        <v>2.486969054291208e-07</v>
       </c>
       <c r="E11">
-        <v>6.5737957361318173E-3</v>
+        <v>5.226223556666367e-05</v>
       </c>
       <c r="F11">
-        <v>1.370630892400541E-6</v>
+        <v>1.37057930495783e-08</v>
       </c>
       <c r="G11">
-        <v>3.6228470054405792E-4</v>
+        <v>2.613111778333184e-06</v>
       </c>
       <c r="H11">
-        <v>1.261505387111096E-8</v>
+        <v>1.261457906905266e-10</v>
       </c>
       <c r="I11">
-        <v>1.2544939175657171E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+        <v>8.320146564675702e-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>2.6999759229352652E-4</v>
+        <v>2.699874301956181e-06</v>
       </c>
       <c r="E12">
-        <v>7.4229663024633727E-2</v>
+        <v>0.0005901321383785816</v>
       </c>
       <c r="F12">
-        <v>1.48796830321403E-5</v>
+        <v>1.48791229945691e-07</v>
       </c>
       <c r="G12">
-        <v>4.0908285440870466E-3</v>
+        <v>2.950660691892908e-05</v>
       </c>
       <c r="H12">
-        <v>1.3695007465266689E-7</v>
+        <v>1.369449201620088e-09</v>
       </c>
       <c r="I12">
-        <v>1.2487374244897949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+        <v>7.897728291802077e-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>2.0342429151854811E-3</v>
+        <v>2.034166350889119e-05</v>
       </c>
       <c r="E13">
-        <v>2.248622945066248</v>
+        <v>0.01787674378285562</v>
       </c>
       <c r="F13">
-        <v>1.12107998931451E-4</v>
+        <v>1.121037794402631e-06</v>
       </c>
       <c r="G13">
-        <v>0.1239225742613624</v>
+        <v>0.0008938371891427808</v>
       </c>
       <c r="H13">
-        <v>1.0318229756413641E-6</v>
+        <v>1.031784140161338e-08</v>
       </c>
       <c r="I13">
-        <v>4.5328541589624907E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+        <v>0.0003141026158488695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>0.1052496095380534</v>
+        <v>0.0010524564818111</v>
       </c>
       <c r="E14">
-        <v>75.659053453059869</v>
+        <v>0.6014959139331744</v>
       </c>
       <c r="F14">
-        <v>5.8003510915764344E-3</v>
+        <v>5.800132779497446e-05</v>
       </c>
       <c r="G14">
-        <v>4.1696028632336919</v>
+        <v>0.03007479569665872</v>
       </c>
       <c r="H14">
-        <v>5.3385445999571792E-5</v>
+        <v>5.338343669228678e-07</v>
       </c>
       <c r="I14">
-        <v>1.33150921973113E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+        <v>0.008743494400019989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>2.8425831376975689E-2</v>
+        <v>0.0002842476149305886</v>
       </c>
       <c r="E15">
-        <v>39.065992614747039</v>
+        <v>0.3105779660076304</v>
       </c>
       <c r="F15">
-        <v>1.566559750483403E-3</v>
+        <v>1.566500788722195e-05</v>
       </c>
       <c r="G15">
-        <v>2.1529435966652022</v>
+        <v>0.01552889830038152</v>
       </c>
       <c r="H15">
-        <v>1.441834979368547E-5</v>
+        <v>1.441780711965259e-07</v>
       </c>
       <c r="I15">
-        <v>7.1304381803458869E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+        <v>0.004889906196801114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.184667161741281E-7</v>
+        <v>1.184622573552238e-09</v>
       </c>
       <c r="E16">
-        <v>1.8911543521414601E-4</v>
+        <v>1.503483804665578e-06</v>
       </c>
       <c r="F16">
-        <v>6.5287515031363457E-9</v>
+        <v>6.528505775715482e-11</v>
       </c>
       <c r="G16">
-        <v>1.0422232689440259E-5</v>
+        <v>7.517419023327889e-08</v>
       </c>
       <c r="H16">
-        <v>6.0089519636402102E-11</v>
+        <v>6.008725800296835e-13</v>
       </c>
       <c r="I16">
-        <v>7.1524793391022255E-8</v>
+        <v>3.404791824932264e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1525,19 +1460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1551,297 +1481,297 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.8019690652977661E-10</v>
+        <v>1.801901243263082e-12</v>
       </c>
       <c r="E2">
-        <v>1.2545583099205521E-7</v>
+        <v>9.488920810459759e-10</v>
       </c>
       <c r="F2">
-        <v>8.695687142381212E-13</v>
+        <v>8.695359856410359e-15</v>
       </c>
       <c r="G2">
-        <v>1.536304704364006E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+        <v>7.548552275642408e-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>3.1406446204523942E-5</v>
+        <v>3.140526413701523e-07</v>
       </c>
       <c r="E3">
-        <v>1.5708497920512099E-2</v>
+        <v>0.0001188120883982272</v>
       </c>
       <c r="F3">
-        <v>1.5155678069503239E-7</v>
+        <v>1.515510764410388e-09</v>
       </c>
       <c r="G3">
-        <v>3.004137533171232E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>2.057760404027956e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.8719679916157815E-10</v>
+        <v>4.871784621774162e-12</v>
       </c>
       <c r="E4">
-        <v>3.0058520065763741E-7</v>
+        <v>2.273492705187295e-09</v>
       </c>
       <c r="F4">
-        <v>2.3510453225114359E-12</v>
+        <v>2.350956834489945e-14</v>
       </c>
       <c r="G4">
-        <v>4.6890939182526942E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>2.834413365153494e-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.0245576278149371E-10</v>
+        <v>1.02451906578615e-12</v>
       </c>
       <c r="E5">
-        <v>3.8820771850078101E-8</v>
+        <v>2.936230440414078e-10</v>
       </c>
       <c r="F5">
-        <v>4.9441651149248516E-13</v>
+        <v>4.943979027747006e-15</v>
       </c>
       <c r="G5">
-        <v>9.4345437351453286E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>7.114419733054938e-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>8.1355099894757606E-6</v>
+        <v>8.135203787304308e-08</v>
       </c>
       <c r="E6">
-        <v>2.8094081730143752E-3</v>
+        <v>2.124911330720055e-05</v>
       </c>
       <c r="F6">
-        <v>3.925919205527994E-8</v>
+        <v>3.925771442820157e-10</v>
       </c>
       <c r="G6">
-        <v>4.3726580877124629E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>2.707642353886108e-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>4.1041323924655003E-11</v>
+        <v>4.103977922216924e-13</v>
       </c>
       <c r="E7">
-        <v>5.083959143717972E-8</v>
+        <v>3.845280473364975e-10</v>
       </c>
       <c r="F7">
-        <v>1.980514092226956E-13</v>
+        <v>1.980439550161803e-15</v>
       </c>
       <c r="G7">
-        <v>7.6378984698197946E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+        <v>4.511296240073644e-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.9378742018808736E-6</v>
+        <v>6.937613076008174e-08</v>
       </c>
       <c r="E8">
-        <v>3.415079311863801E-3</v>
+        <v>2.583014029357245e-05</v>
       </c>
       <c r="F8">
-        <v>3.3479810866111999E-8</v>
+        <v>3.347855076185298e-10</v>
       </c>
       <c r="G8">
-        <v>6.291624679647773E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+        <v>4.40718712112366e-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>5.4858296815441122E-3</v>
+        <v>5.485623207338699e-05</v>
       </c>
       <c r="E9">
-        <v>1.593464672985375</v>
+        <v>0.01205225773617561</v>
       </c>
       <c r="F9">
-        <v>2.6472740040747409E-5</v>
+        <v>2.647174366676529e-07</v>
       </c>
       <c r="G9">
-        <v>2.3102179787621979E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+        <v>0.001320250126347522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.5444399336988439E-8</v>
+        <v>3.54430652900686e-10</v>
       </c>
       <c r="E10">
-        <v>2.8505290516323941E-5</v>
+        <v>2.156013333534705e-07</v>
       </c>
       <c r="F10">
-        <v>1.7104256311589061E-10</v>
+        <v>1.710361254611762e-12</v>
       </c>
       <c r="G10">
-        <v>5.3905359635652279E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+        <v>3.738152618359217e-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.614162223249204E-6</v>
+        <v>2.614063832103434e-08</v>
       </c>
       <c r="E11">
-        <v>6.9097448735064878E-4</v>
+        <v>5.226223556666366e-06</v>
       </c>
       <c r="F11">
-        <v>1.261505387111096E-8</v>
+        <v>1.261457906905266e-10</v>
       </c>
       <c r="G11">
-        <v>1.2544939175657171E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+        <v>8.320146564675702e-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>2.837956264681662E-5</v>
+        <v>2.837849450435001e-07</v>
       </c>
       <c r="E12">
-        <v>7.8023116953187342E-3</v>
+        <v>5.901321383785817e-05</v>
       </c>
       <c r="F12">
-        <v>1.3695007465266689E-7</v>
+        <v>1.369449201620088e-09</v>
       </c>
       <c r="G12">
-        <v>1.2487374244897949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+        <v>7.897728291802077e-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>2.138201446907251E-4</v>
+        <v>2.138120969847191e-06</v>
       </c>
       <c r="E13">
-        <v>0.23635372151467479</v>
+        <v>0.001787674378285562</v>
       </c>
       <c r="F13">
-        <v>1.0318229756413641E-6</v>
+        <v>1.031784140161338e-08</v>
       </c>
       <c r="G13">
-        <v>4.5328541589624907E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+        <v>0.0003141026158488695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>1.1062831568479099E-2</v>
+        <v>0.0001106241518855295</v>
       </c>
       <c r="E14">
-        <v>7.9525555358866864</v>
+        <v>0.06014959139331744</v>
       </c>
       <c r="F14">
-        <v>5.3385445999571792E-5</v>
+        <v>5.338343669228678e-07</v>
       </c>
       <c r="G14">
-        <v>1.33150921973113E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+        <v>0.008743494400019989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>2.987851319332188E-3</v>
+        <v>2.987738863375139e-05</v>
       </c>
       <c r="E15">
-        <v>4.1062432274025564</v>
+        <v>0.03105779660076304</v>
       </c>
       <c r="F15">
-        <v>1.441834979368547E-5</v>
+        <v>1.441780711965259e-07</v>
       </c>
       <c r="G15">
-        <v>7.1304381803458869E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+        <v>0.004889906196801114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.2452087311842751E-8</v>
+        <v>1.245161864347667e-10</v>
       </c>
       <c r="E16">
-        <v>1.9878004450147568E-5</v>
+        <v>1.503483804665578e-07</v>
       </c>
       <c r="F16">
-        <v>6.0089519636402102E-11</v>
+        <v>6.008725800296835e-13</v>
       </c>
       <c r="G16">
-        <v>7.1524793391022255E-8</v>
+        <v>3.404791824932264e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1856,14 +1786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1877,297 +1807,297 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1.8019690652977661E-10</v>
+        <v>1.801901243263082e-12</v>
       </c>
       <c r="E2">
-        <v>1.2545583099205521E-7</v>
+        <v>9.488920810459759e-10</v>
       </c>
       <c r="F2">
-        <v>8.695687142381212E-13</v>
+        <v>8.695359856410359e-15</v>
       </c>
       <c r="G2">
-        <v>1.536304704364006E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+        <v>7.548552275642408e-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>3.1406446204523942E-5</v>
+        <v>3.140526413701523e-07</v>
       </c>
       <c r="E3">
-        <v>1.5708497920512099E-2</v>
+        <v>0.0001188120883982272</v>
       </c>
       <c r="F3">
-        <v>1.5155678069503239E-7</v>
+        <v>1.515510764410388e-09</v>
       </c>
       <c r="G3">
-        <v>3.004137533171232E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>2.057760404027956e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>4.8719679916157815E-10</v>
+        <v>4.871784621774162e-12</v>
       </c>
       <c r="E4">
-        <v>3.0058520065763741E-7</v>
+        <v>2.273492705187295e-09</v>
       </c>
       <c r="F4">
-        <v>2.3510453225114359E-12</v>
+        <v>2.350956834489945e-14</v>
       </c>
       <c r="G4">
-        <v>4.6890939182526942E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>2.834413365153494e-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.0245576278149371E-10</v>
+        <v>1.02451906578615e-12</v>
       </c>
       <c r="E5">
-        <v>3.8820771850078101E-8</v>
+        <v>2.936230440414078e-10</v>
       </c>
       <c r="F5">
-        <v>4.9441651149248516E-13</v>
+        <v>4.943979027747006e-15</v>
       </c>
       <c r="G5">
-        <v>9.4345437351453286E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>7.114419733054938e-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>8.1355099894757606E-6</v>
+        <v>8.135203787304308e-08</v>
       </c>
       <c r="E6">
-        <v>2.8094081730143752E-3</v>
+        <v>2.124911330720055e-05</v>
       </c>
       <c r="F6">
-        <v>3.925919205527994E-8</v>
+        <v>3.925771442820157e-10</v>
       </c>
       <c r="G6">
-        <v>4.3726580877124629E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>2.707642353886108e-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>4.1041323924655003E-11</v>
+        <v>4.103977922216924e-13</v>
       </c>
       <c r="E7">
-        <v>5.083959143717972E-8</v>
+        <v>3.845280473364975e-10</v>
       </c>
       <c r="F7">
-        <v>1.980514092226956E-13</v>
+        <v>1.980439550161803e-15</v>
       </c>
       <c r="G7">
-        <v>7.6378984698197946E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+        <v>4.511296240073644e-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>6.9378742018808736E-6</v>
+        <v>6.937613076008174e-08</v>
       </c>
       <c r="E8">
-        <v>3.415079311863801E-3</v>
+        <v>2.583014029357245e-05</v>
       </c>
       <c r="F8">
-        <v>3.3479810866111999E-8</v>
+        <v>3.347855076185298e-10</v>
       </c>
       <c r="G8">
-        <v>6.291624679647773E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+        <v>4.40718712112366e-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>5.4858296815441122E-3</v>
+        <v>5.485623207338699e-05</v>
       </c>
       <c r="E9">
-        <v>1.593464672985375</v>
+        <v>0.01205225773617561</v>
       </c>
       <c r="F9">
-        <v>2.6472740040747409E-5</v>
+        <v>2.647174366676529e-07</v>
       </c>
       <c r="G9">
-        <v>2.3102179787621979E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+        <v>0.001320250126347522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>3.5444399336988439E-8</v>
+        <v>3.54430652900686e-10</v>
       </c>
       <c r="E10">
-        <v>2.8505290516323941E-5</v>
+        <v>2.156013333534705e-07</v>
       </c>
       <c r="F10">
-        <v>1.7104256311589061E-10</v>
+        <v>1.710361254611762e-12</v>
       </c>
       <c r="G10">
-        <v>5.3905359635652279E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+        <v>3.738152618359217e-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2.614162223249204E-6</v>
+        <v>2.614063832103434e-08</v>
       </c>
       <c r="E11">
-        <v>6.9097448735064878E-4</v>
+        <v>5.226223556666366e-06</v>
       </c>
       <c r="F11">
-        <v>1.261505387111096E-8</v>
+        <v>1.261457906905266e-10</v>
       </c>
       <c r="G11">
-        <v>1.2544939175657171E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+        <v>8.320146564675702e-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12">
-        <v>2.837956264681662E-5</v>
+        <v>2.837849450435001e-07</v>
       </c>
       <c r="E12">
-        <v>7.8023116953187342E-3</v>
+        <v>5.901321383785817e-05</v>
       </c>
       <c r="F12">
-        <v>1.3695007465266689E-7</v>
+        <v>1.369449201620088e-09</v>
       </c>
       <c r="G12">
-        <v>1.2487374244897949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+        <v>7.897728291802077e-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>2.138201446907251E-4</v>
+        <v>2.138120969847191e-06</v>
       </c>
       <c r="E13">
-        <v>0.23635372151467479</v>
+        <v>0.001787674378285562</v>
       </c>
       <c r="F13">
-        <v>1.0318229756413641E-6</v>
+        <v>1.031784140161338e-08</v>
       </c>
       <c r="G13">
-        <v>4.5328541589624907E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+        <v>0.0003141026158488695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>1.1062831568479099E-2</v>
+        <v>0.0001106241518855295</v>
       </c>
       <c r="E14">
-        <v>7.9525555358866864</v>
+        <v>0.06014959139331744</v>
       </c>
       <c r="F14">
-        <v>5.3385445999571792E-5</v>
+        <v>5.338343669228678e-07</v>
       </c>
       <c r="G14">
-        <v>1.33150921973113E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+        <v>0.008743494400019989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>2.987851319332188E-3</v>
+        <v>2.987738863375139e-05</v>
       </c>
       <c r="E15">
-        <v>4.1062432274025564</v>
+        <v>0.03105779660076304</v>
       </c>
       <c r="F15">
-        <v>1.441834979368547E-5</v>
+        <v>1.441780711965259e-07</v>
       </c>
       <c r="G15">
-        <v>7.1304381803458869E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+        <v>0.004889906196801114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1.2452087311842751E-8</v>
+        <v>1.245161864347667e-10</v>
       </c>
       <c r="E16">
-        <v>1.9878004450147568E-5</v>
+        <v>1.503483804665578e-07</v>
       </c>
       <c r="F16">
-        <v>6.0089519636402102E-11</v>
+        <v>6.008725800296835e-13</v>
       </c>
       <c r="G16">
-        <v>7.1524793391022255E-8</v>
+        <v>3.404791824932264e-08</v>
       </c>
     </row>
   </sheetData>
